--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10101_ログイン.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10101_ログイン.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115146A4-DCD0-464B-92DC-3EA4A8DD08C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E0A38-E72F-49C5-A91C-C7DDD41832E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -24,15 +24,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2. 取引単体テスト'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1717,16 +1709,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面遷移パターン(※1)</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UI部品動作確認</t>
     <rPh sb="2" eb="4">
       <t>ブヒン</t>
@@ -3133,6 +3115,16 @@
   </si>
   <si>
     <t>シナリオID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移パターン</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5184,6 +5176,84 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -5290,84 +5360,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="38" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6843,57 +6835,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="282" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="259" t="s">
-        <v>370</v>
-      </c>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="265" t="s">
+      <c r="B1" s="283"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="285" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="291" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="267"/>
-      <c r="S1" s="274" t="s">
+      <c r="P1" s="292"/>
+      <c r="Q1" s="292"/>
+      <c r="R1" s="293"/>
+      <c r="S1" s="300" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="276"/>
-      <c r="AA1" s="256" t="s">
+      <c r="T1" s="301"/>
+      <c r="U1" s="301"/>
+      <c r="V1" s="301"/>
+      <c r="W1" s="301"/>
+      <c r="X1" s="301"/>
+      <c r="Y1" s="301"/>
+      <c r="Z1" s="302"/>
+      <c r="AA1" s="282" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="258"/>
-      <c r="AC1" s="283" t="str">
+      <c r="AB1" s="284"/>
+      <c r="AC1" s="309" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="284"/>
-      <c r="AE1" s="284"/>
-      <c r="AF1" s="285"/>
-      <c r="AG1" s="250">
+      <c r="AD1" s="310"/>
+      <c r="AE1" s="310"/>
+      <c r="AF1" s="311"/>
+      <c r="AG1" s="276">
         <f>IF(D8="","",D8)</f>
         <v>43737</v>
       </c>
-      <c r="AH1" s="251"/>
-      <c r="AI1" s="252"/>
+      <c r="AH1" s="277"/>
+      <c r="AI1" s="278"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6901,53 +6893,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="282" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="259" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" s="260"/>
-      <c r="G2" s="260"/>
-      <c r="H2" s="260"/>
-      <c r="I2" s="260"/>
-      <c r="J2" s="260"/>
-      <c r="K2" s="260"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="261"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="270"/>
-      <c r="S2" s="277"/>
-      <c r="T2" s="278"/>
-      <c r="U2" s="278"/>
-      <c r="V2" s="278"/>
-      <c r="W2" s="278"/>
-      <c r="X2" s="278"/>
-      <c r="Y2" s="278"/>
-      <c r="Z2" s="279"/>
-      <c r="AA2" s="256" t="s">
+      <c r="B2" s="283"/>
+      <c r="C2" s="283"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="285" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="294"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="296"/>
+      <c r="S2" s="303"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="304"/>
+      <c r="X2" s="304"/>
+      <c r="Y2" s="304"/>
+      <c r="Z2" s="305"/>
+      <c r="AA2" s="282" t="s">
         <v>145</v>
       </c>
-      <c r="AB2" s="258"/>
-      <c r="AC2" s="262" t="str">
+      <c r="AB2" s="284"/>
+      <c r="AC2" s="288" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="263"/>
-      <c r="AE2" s="263"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="250" t="str">
+      <c r="AD2" s="289"/>
+      <c r="AE2" s="289"/>
+      <c r="AF2" s="290"/>
+      <c r="AG2" s="276" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="251"/>
-      <c r="AI2" s="252"/>
+      <c r="AH2" s="277"/>
+      <c r="AI2" s="278"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6955,45 +6947,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="282" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="259" t="s">
-        <v>372</v>
-      </c>
-      <c r="F3" s="260"/>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="260"/>
-      <c r="J3" s="260"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="260"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="272"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="273"/>
-      <c r="S3" s="280"/>
-      <c r="T3" s="281"/>
-      <c r="U3" s="281"/>
-      <c r="V3" s="281"/>
-      <c r="W3" s="281"/>
-      <c r="X3" s="281"/>
-      <c r="Y3" s="281"/>
-      <c r="Z3" s="282"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="258"/>
-      <c r="AC3" s="283"/>
-      <c r="AD3" s="284"/>
-      <c r="AE3" s="284"/>
-      <c r="AF3" s="285"/>
-      <c r="AG3" s="250"/>
-      <c r="AH3" s="251"/>
-      <c r="AI3" s="252"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="285" t="s">
+        <v>371</v>
+      </c>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="286"/>
+      <c r="J3" s="286"/>
+      <c r="K3" s="286"/>
+      <c r="L3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="287"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="298"/>
+      <c r="Q3" s="298"/>
+      <c r="R3" s="299"/>
+      <c r="S3" s="306"/>
+      <c r="T3" s="307"/>
+      <c r="U3" s="307"/>
+      <c r="V3" s="307"/>
+      <c r="W3" s="307"/>
+      <c r="X3" s="307"/>
+      <c r="Y3" s="307"/>
+      <c r="Z3" s="308"/>
+      <c r="AA3" s="282"/>
+      <c r="AB3" s="284"/>
+      <c r="AC3" s="309"/>
+      <c r="AD3" s="310"/>
+      <c r="AE3" s="310"/>
+      <c r="AF3" s="311"/>
+      <c r="AG3" s="276"/>
+      <c r="AH3" s="277"/>
+      <c r="AI3" s="278"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7030,1190 +7022,1034 @@
       <c r="A7" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="253" t="s">
+      <c r="B7" s="279" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="253" t="s">
+      <c r="C7" s="280"/>
+      <c r="D7" s="279" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="255"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="253" t="s">
+      <c r="E7" s="281"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="255"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="253" t="s">
+      <c r="H7" s="281"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="279" t="s">
         <v>151</v>
       </c>
-      <c r="K7" s="255"/>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
-      <c r="P7" s="254"/>
-      <c r="Q7" s="253" t="s">
+      <c r="K7" s="281"/>
+      <c r="L7" s="281"/>
+      <c r="M7" s="281"/>
+      <c r="N7" s="281"/>
+      <c r="O7" s="281"/>
+      <c r="P7" s="280"/>
+      <c r="Q7" s="279" t="s">
         <v>152</v>
       </c>
-      <c r="R7" s="255"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="255"/>
-      <c r="U7" s="255"/>
-      <c r="V7" s="255"/>
-      <c r="W7" s="255"/>
-      <c r="X7" s="255"/>
-      <c r="Y7" s="255"/>
-      <c r="Z7" s="255"/>
-      <c r="AA7" s="255"/>
-      <c r="AB7" s="255"/>
-      <c r="AC7" s="255"/>
-      <c r="AD7" s="255"/>
-      <c r="AE7" s="254"/>
-      <c r="AF7" s="253" t="s">
+      <c r="R7" s="281"/>
+      <c r="S7" s="281"/>
+      <c r="T7" s="281"/>
+      <c r="U7" s="281"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="281"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="281"/>
+      <c r="Z7" s="281"/>
+      <c r="AA7" s="281"/>
+      <c r="AB7" s="281"/>
+      <c r="AC7" s="281"/>
+      <c r="AD7" s="281"/>
+      <c r="AE7" s="280"/>
+      <c r="AF7" s="279" t="s">
         <v>153</v>
       </c>
-      <c r="AG7" s="255"/>
-      <c r="AH7" s="255"/>
-      <c r="AI7" s="254"/>
+      <c r="AG7" s="281"/>
+      <c r="AH7" s="281"/>
+      <c r="AI7" s="280"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="298" t="s">
+      <c r="B8" s="263" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="264"/>
+      <c r="D8" s="265">
+        <v>43737</v>
+      </c>
+      <c r="E8" s="266"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="268" t="s">
         <v>365</v>
       </c>
-      <c r="C8" s="299"/>
-      <c r="D8" s="300">
-        <v>43737</v>
-      </c>
-      <c r="E8" s="301"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="303" t="s">
+      <c r="H8" s="269"/>
+      <c r="I8" s="264"/>
+      <c r="J8" s="270" t="s">
         <v>366</v>
       </c>
-      <c r="H8" s="304"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="305" t="s">
+      <c r="K8" s="271"/>
+      <c r="L8" s="271"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="271"/>
+      <c r="O8" s="271"/>
+      <c r="P8" s="272"/>
+      <c r="Q8" s="273" t="s">
         <v>367</v>
       </c>
-      <c r="K8" s="306"/>
-      <c r="L8" s="306"/>
-      <c r="M8" s="306"/>
-      <c r="N8" s="306"/>
-      <c r="O8" s="306"/>
-      <c r="P8" s="307"/>
-      <c r="Q8" s="308" t="s">
+      <c r="R8" s="274"/>
+      <c r="S8" s="274"/>
+      <c r="T8" s="274"/>
+      <c r="U8" s="274"/>
+      <c r="V8" s="274"/>
+      <c r="W8" s="274"/>
+      <c r="X8" s="274"/>
+      <c r="Y8" s="274"/>
+      <c r="Z8" s="274"/>
+      <c r="AA8" s="274"/>
+      <c r="AB8" s="274"/>
+      <c r="AC8" s="274"/>
+      <c r="AD8" s="274"/>
+      <c r="AE8" s="275"/>
+      <c r="AF8" s="270" t="s">
         <v>368</v>
       </c>
-      <c r="R8" s="309"/>
-      <c r="S8" s="309"/>
-      <c r="T8" s="309"/>
-      <c r="U8" s="309"/>
-      <c r="V8" s="309"/>
-      <c r="W8" s="309"/>
-      <c r="X8" s="309"/>
-      <c r="Y8" s="309"/>
-      <c r="Z8" s="309"/>
-      <c r="AA8" s="309"/>
-      <c r="AB8" s="309"/>
-      <c r="AC8" s="309"/>
-      <c r="AD8" s="309"/>
-      <c r="AE8" s="310"/>
-      <c r="AF8" s="305" t="s">
-        <v>369</v>
-      </c>
-      <c r="AG8" s="306"/>
-      <c r="AH8" s="306"/>
-      <c r="AI8" s="307"/>
+      <c r="AG8" s="271"/>
+      <c r="AH8" s="271"/>
+      <c r="AI8" s="272"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="286"/>
-      <c r="C9" s="287"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="288"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="287"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="293"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="293"/>
-      <c r="O9" s="293"/>
-      <c r="P9" s="294"/>
-      <c r="Q9" s="295"/>
-      <c r="R9" s="296"/>
-      <c r="S9" s="296"/>
-      <c r="T9" s="296"/>
-      <c r="U9" s="296"/>
-      <c r="V9" s="296"/>
-      <c r="W9" s="296"/>
-      <c r="X9" s="296"/>
-      <c r="Y9" s="296"/>
-      <c r="Z9" s="296"/>
-      <c r="AA9" s="296"/>
-      <c r="AB9" s="296"/>
-      <c r="AC9" s="296"/>
-      <c r="AD9" s="296"/>
-      <c r="AE9" s="297"/>
-      <c r="AF9" s="292"/>
-      <c r="AG9" s="293"/>
-      <c r="AH9" s="293"/>
-      <c r="AI9" s="294"/>
+      <c r="B9" s="250"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="252"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="252"/>
+      <c r="H9" s="255"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="257"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="258"/>
+      <c r="Q9" s="259"/>
+      <c r="R9" s="260"/>
+      <c r="S9" s="260"/>
+      <c r="T9" s="260"/>
+      <c r="U9" s="260"/>
+      <c r="V9" s="260"/>
+      <c r="W9" s="260"/>
+      <c r="X9" s="260"/>
+      <c r="Y9" s="260"/>
+      <c r="Z9" s="260"/>
+      <c r="AA9" s="260"/>
+      <c r="AB9" s="260"/>
+      <c r="AC9" s="260"/>
+      <c r="AD9" s="260"/>
+      <c r="AE9" s="261"/>
+      <c r="AF9" s="256"/>
+      <c r="AG9" s="257"/>
+      <c r="AH9" s="257"/>
+      <c r="AI9" s="258"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="286"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="286"/>
-      <c r="H10" s="291"/>
-      <c r="I10" s="287"/>
-      <c r="J10" s="292"/>
-      <c r="K10" s="293"/>
-      <c r="L10" s="293"/>
-      <c r="M10" s="293"/>
-      <c r="N10" s="293"/>
-      <c r="O10" s="293"/>
-      <c r="P10" s="294"/>
-      <c r="Q10" s="295"/>
-      <c r="R10" s="296"/>
-      <c r="S10" s="296"/>
-      <c r="T10" s="296"/>
-      <c r="U10" s="296"/>
-      <c r="V10" s="296"/>
-      <c r="W10" s="296"/>
-      <c r="X10" s="296"/>
-      <c r="Y10" s="296"/>
-      <c r="Z10" s="296"/>
-      <c r="AA10" s="296"/>
-      <c r="AB10" s="296"/>
-      <c r="AC10" s="296"/>
-      <c r="AD10" s="296"/>
-      <c r="AE10" s="297"/>
-      <c r="AF10" s="292"/>
-      <c r="AG10" s="293"/>
-      <c r="AH10" s="293"/>
-      <c r="AI10" s="294"/>
+      <c r="B10" s="250"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="252"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="257"/>
+      <c r="L10" s="257"/>
+      <c r="M10" s="257"/>
+      <c r="N10" s="257"/>
+      <c r="O10" s="257"/>
+      <c r="P10" s="258"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="260"/>
+      <c r="S10" s="260"/>
+      <c r="T10" s="260"/>
+      <c r="U10" s="260"/>
+      <c r="V10" s="260"/>
+      <c r="W10" s="260"/>
+      <c r="X10" s="260"/>
+      <c r="Y10" s="260"/>
+      <c r="Z10" s="260"/>
+      <c r="AA10" s="260"/>
+      <c r="AB10" s="260"/>
+      <c r="AC10" s="260"/>
+      <c r="AD10" s="260"/>
+      <c r="AE10" s="261"/>
+      <c r="AF10" s="256"/>
+      <c r="AG10" s="257"/>
+      <c r="AH10" s="257"/>
+      <c r="AI10" s="258"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="286"/>
-      <c r="C11" s="287"/>
-      <c r="D11" s="288"/>
-      <c r="E11" s="289"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="286"/>
-      <c r="H11" s="291"/>
-      <c r="I11" s="287"/>
-      <c r="J11" s="292"/>
-      <c r="K11" s="293"/>
-      <c r="L11" s="293"/>
-      <c r="M11" s="293"/>
-      <c r="N11" s="293"/>
-      <c r="O11" s="293"/>
-      <c r="P11" s="294"/>
-      <c r="Q11" s="295"/>
-      <c r="R11" s="296"/>
-      <c r="S11" s="296"/>
-      <c r="T11" s="296"/>
-      <c r="U11" s="296"/>
-      <c r="V11" s="296"/>
-      <c r="W11" s="296"/>
-      <c r="X11" s="296"/>
-      <c r="Y11" s="296"/>
-      <c r="Z11" s="296"/>
-      <c r="AA11" s="296"/>
-      <c r="AB11" s="296"/>
-      <c r="AC11" s="296"/>
-      <c r="AD11" s="296"/>
-      <c r="AE11" s="297"/>
-      <c r="AF11" s="292"/>
-      <c r="AG11" s="293"/>
-      <c r="AH11" s="293"/>
-      <c r="AI11" s="294"/>
+      <c r="B11" s="250"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="252"/>
+      <c r="E11" s="253"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="255"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="256"/>
+      <c r="K11" s="257"/>
+      <c r="L11" s="257"/>
+      <c r="M11" s="257"/>
+      <c r="N11" s="257"/>
+      <c r="O11" s="257"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="259"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="260"/>
+      <c r="T11" s="260"/>
+      <c r="U11" s="260"/>
+      <c r="V11" s="260"/>
+      <c r="W11" s="260"/>
+      <c r="X11" s="260"/>
+      <c r="Y11" s="260"/>
+      <c r="Z11" s="260"/>
+      <c r="AA11" s="260"/>
+      <c r="AB11" s="260"/>
+      <c r="AC11" s="260"/>
+      <c r="AD11" s="260"/>
+      <c r="AE11" s="261"/>
+      <c r="AF11" s="256"/>
+      <c r="AG11" s="257"/>
+      <c r="AH11" s="257"/>
+      <c r="AI11" s="258"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="286"/>
-      <c r="C12" s="287"/>
-      <c r="D12" s="288"/>
-      <c r="E12" s="289"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="286"/>
-      <c r="H12" s="291"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="292"/>
-      <c r="K12" s="293"/>
-      <c r="L12" s="293"/>
-      <c r="M12" s="293"/>
-      <c r="N12" s="293"/>
-      <c r="O12" s="293"/>
-      <c r="P12" s="294"/>
-      <c r="Q12" s="295"/>
-      <c r="R12" s="296"/>
-      <c r="S12" s="296"/>
-      <c r="T12" s="296"/>
-      <c r="U12" s="296"/>
-      <c r="V12" s="296"/>
-      <c r="W12" s="296"/>
-      <c r="X12" s="296"/>
-      <c r="Y12" s="296"/>
-      <c r="Z12" s="296"/>
-      <c r="AA12" s="296"/>
-      <c r="AB12" s="296"/>
-      <c r="AC12" s="296"/>
-      <c r="AD12" s="296"/>
-      <c r="AE12" s="297"/>
-      <c r="AF12" s="292"/>
-      <c r="AG12" s="293"/>
-      <c r="AH12" s="293"/>
-      <c r="AI12" s="294"/>
+      <c r="B12" s="250"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="252"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="255"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="256"/>
+      <c r="K12" s="257"/>
+      <c r="L12" s="257"/>
+      <c r="M12" s="257"/>
+      <c r="N12" s="257"/>
+      <c r="O12" s="257"/>
+      <c r="P12" s="258"/>
+      <c r="Q12" s="259"/>
+      <c r="R12" s="260"/>
+      <c r="S12" s="260"/>
+      <c r="T12" s="260"/>
+      <c r="U12" s="260"/>
+      <c r="V12" s="260"/>
+      <c r="W12" s="260"/>
+      <c r="X12" s="260"/>
+      <c r="Y12" s="260"/>
+      <c r="Z12" s="260"/>
+      <c r="AA12" s="260"/>
+      <c r="AB12" s="260"/>
+      <c r="AC12" s="260"/>
+      <c r="AD12" s="260"/>
+      <c r="AE12" s="261"/>
+      <c r="AF12" s="256"/>
+      <c r="AG12" s="257"/>
+      <c r="AH12" s="257"/>
+      <c r="AI12" s="258"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="286"/>
-      <c r="C13" s="287"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="292"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="293"/>
-      <c r="M13" s="293"/>
-      <c r="N13" s="293"/>
-      <c r="O13" s="293"/>
-      <c r="P13" s="294"/>
-      <c r="Q13" s="295"/>
-      <c r="R13" s="296"/>
-      <c r="S13" s="296"/>
-      <c r="T13" s="296"/>
-      <c r="U13" s="296"/>
-      <c r="V13" s="296"/>
-      <c r="W13" s="296"/>
-      <c r="X13" s="296"/>
-      <c r="Y13" s="296"/>
-      <c r="Z13" s="296"/>
-      <c r="AA13" s="296"/>
-      <c r="AB13" s="296"/>
-      <c r="AC13" s="296"/>
-      <c r="AD13" s="296"/>
-      <c r="AE13" s="297"/>
-      <c r="AF13" s="292"/>
-      <c r="AG13" s="293"/>
-      <c r="AH13" s="293"/>
-      <c r="AI13" s="294"/>
+      <c r="B13" s="250"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="252"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="250"/>
+      <c r="H13" s="255"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="257"/>
+      <c r="L13" s="257"/>
+      <c r="M13" s="257"/>
+      <c r="N13" s="257"/>
+      <c r="O13" s="257"/>
+      <c r="P13" s="258"/>
+      <c r="Q13" s="259"/>
+      <c r="R13" s="260"/>
+      <c r="S13" s="260"/>
+      <c r="T13" s="260"/>
+      <c r="U13" s="260"/>
+      <c r="V13" s="260"/>
+      <c r="W13" s="260"/>
+      <c r="X13" s="260"/>
+      <c r="Y13" s="260"/>
+      <c r="Z13" s="260"/>
+      <c r="AA13" s="260"/>
+      <c r="AB13" s="260"/>
+      <c r="AC13" s="260"/>
+      <c r="AD13" s="260"/>
+      <c r="AE13" s="261"/>
+      <c r="AF13" s="256"/>
+      <c r="AG13" s="257"/>
+      <c r="AH13" s="257"/>
+      <c r="AI13" s="258"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="286"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="288"/>
-      <c r="E14" s="289"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="291"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="292"/>
-      <c r="K14" s="293"/>
-      <c r="L14" s="293"/>
-      <c r="M14" s="293"/>
-      <c r="N14" s="293"/>
-      <c r="O14" s="293"/>
-      <c r="P14" s="294"/>
-      <c r="Q14" s="295"/>
-      <c r="R14" s="296"/>
-      <c r="S14" s="296"/>
-      <c r="T14" s="296"/>
-      <c r="U14" s="296"/>
-      <c r="V14" s="296"/>
-      <c r="W14" s="296"/>
-      <c r="X14" s="296"/>
-      <c r="Y14" s="296"/>
-      <c r="Z14" s="296"/>
-      <c r="AA14" s="296"/>
-      <c r="AB14" s="296"/>
-      <c r="AC14" s="296"/>
-      <c r="AD14" s="296"/>
-      <c r="AE14" s="297"/>
-      <c r="AF14" s="292"/>
-      <c r="AG14" s="293"/>
-      <c r="AH14" s="293"/>
-      <c r="AI14" s="294"/>
+      <c r="B14" s="250"/>
+      <c r="C14" s="251"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="255"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="256"/>
+      <c r="K14" s="257"/>
+      <c r="L14" s="257"/>
+      <c r="M14" s="257"/>
+      <c r="N14" s="257"/>
+      <c r="O14" s="257"/>
+      <c r="P14" s="258"/>
+      <c r="Q14" s="259"/>
+      <c r="R14" s="260"/>
+      <c r="S14" s="260"/>
+      <c r="T14" s="260"/>
+      <c r="U14" s="260"/>
+      <c r="V14" s="260"/>
+      <c r="W14" s="260"/>
+      <c r="X14" s="260"/>
+      <c r="Y14" s="260"/>
+      <c r="Z14" s="260"/>
+      <c r="AA14" s="260"/>
+      <c r="AB14" s="260"/>
+      <c r="AC14" s="260"/>
+      <c r="AD14" s="260"/>
+      <c r="AE14" s="261"/>
+      <c r="AF14" s="256"/>
+      <c r="AG14" s="257"/>
+      <c r="AH14" s="257"/>
+      <c r="AI14" s="258"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="286"/>
-      <c r="C15" s="287"/>
-      <c r="D15" s="288"/>
-      <c r="E15" s="289"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="286"/>
-      <c r="H15" s="291"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="292"/>
-      <c r="K15" s="293"/>
-      <c r="L15" s="293"/>
-      <c r="M15" s="293"/>
-      <c r="N15" s="293"/>
-      <c r="O15" s="293"/>
-      <c r="P15" s="294"/>
-      <c r="Q15" s="295"/>
-      <c r="R15" s="296"/>
-      <c r="S15" s="296"/>
-      <c r="T15" s="296"/>
-      <c r="U15" s="296"/>
-      <c r="V15" s="296"/>
-      <c r="W15" s="296"/>
-      <c r="X15" s="296"/>
-      <c r="Y15" s="296"/>
-      <c r="Z15" s="296"/>
-      <c r="AA15" s="296"/>
-      <c r="AB15" s="296"/>
-      <c r="AC15" s="296"/>
-      <c r="AD15" s="296"/>
-      <c r="AE15" s="297"/>
-      <c r="AF15" s="292"/>
-      <c r="AG15" s="293"/>
-      <c r="AH15" s="293"/>
-      <c r="AI15" s="294"/>
+      <c r="B15" s="250"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="252"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="250"/>
+      <c r="H15" s="255"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="256"/>
+      <c r="K15" s="257"/>
+      <c r="L15" s="257"/>
+      <c r="M15" s="257"/>
+      <c r="N15" s="257"/>
+      <c r="O15" s="257"/>
+      <c r="P15" s="258"/>
+      <c r="Q15" s="259"/>
+      <c r="R15" s="260"/>
+      <c r="S15" s="260"/>
+      <c r="T15" s="260"/>
+      <c r="U15" s="260"/>
+      <c r="V15" s="260"/>
+      <c r="W15" s="260"/>
+      <c r="X15" s="260"/>
+      <c r="Y15" s="260"/>
+      <c r="Z15" s="260"/>
+      <c r="AA15" s="260"/>
+      <c r="AB15" s="260"/>
+      <c r="AC15" s="260"/>
+      <c r="AD15" s="260"/>
+      <c r="AE15" s="261"/>
+      <c r="AF15" s="256"/>
+      <c r="AG15" s="257"/>
+      <c r="AH15" s="257"/>
+      <c r="AI15" s="258"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="286"/>
-      <c r="C16" s="287"/>
-      <c r="D16" s="288"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="291"/>
-      <c r="I16" s="287"/>
-      <c r="J16" s="292"/>
-      <c r="K16" s="293"/>
-      <c r="L16" s="293"/>
-      <c r="M16" s="293"/>
-      <c r="N16" s="293"/>
-      <c r="O16" s="293"/>
-      <c r="P16" s="294"/>
-      <c r="Q16" s="295"/>
-      <c r="R16" s="296"/>
-      <c r="S16" s="296"/>
-      <c r="T16" s="296"/>
-      <c r="U16" s="296"/>
-      <c r="V16" s="296"/>
-      <c r="W16" s="296"/>
-      <c r="X16" s="296"/>
-      <c r="Y16" s="296"/>
-      <c r="Z16" s="296"/>
-      <c r="AA16" s="296"/>
-      <c r="AB16" s="296"/>
-      <c r="AC16" s="296"/>
-      <c r="AD16" s="296"/>
-      <c r="AE16" s="297"/>
-      <c r="AF16" s="292"/>
-      <c r="AG16" s="293"/>
-      <c r="AH16" s="293"/>
-      <c r="AI16" s="294"/>
+      <c r="B16" s="250"/>
+      <c r="C16" s="251"/>
+      <c r="D16" s="252"/>
+      <c r="E16" s="253"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="250"/>
+      <c r="H16" s="255"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="257"/>
+      <c r="M16" s="257"/>
+      <c r="N16" s="257"/>
+      <c r="O16" s="257"/>
+      <c r="P16" s="258"/>
+      <c r="Q16" s="259"/>
+      <c r="R16" s="260"/>
+      <c r="S16" s="260"/>
+      <c r="T16" s="260"/>
+      <c r="U16" s="260"/>
+      <c r="V16" s="260"/>
+      <c r="W16" s="260"/>
+      <c r="X16" s="260"/>
+      <c r="Y16" s="260"/>
+      <c r="Z16" s="260"/>
+      <c r="AA16" s="260"/>
+      <c r="AB16" s="260"/>
+      <c r="AC16" s="260"/>
+      <c r="AD16" s="260"/>
+      <c r="AE16" s="261"/>
+      <c r="AF16" s="256"/>
+      <c r="AG16" s="257"/>
+      <c r="AH16" s="257"/>
+      <c r="AI16" s="258"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="286"/>
-      <c r="C17" s="287"/>
-      <c r="D17" s="288"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="286"/>
-      <c r="H17" s="291"/>
-      <c r="I17" s="287"/>
-      <c r="J17" s="292"/>
-      <c r="K17" s="293"/>
-      <c r="L17" s="293"/>
-      <c r="M17" s="293"/>
-      <c r="N17" s="293"/>
-      <c r="O17" s="293"/>
-      <c r="P17" s="294"/>
-      <c r="Q17" s="295"/>
-      <c r="R17" s="296"/>
-      <c r="S17" s="296"/>
-      <c r="T17" s="296"/>
-      <c r="U17" s="296"/>
-      <c r="V17" s="296"/>
-      <c r="W17" s="296"/>
-      <c r="X17" s="296"/>
-      <c r="Y17" s="296"/>
-      <c r="Z17" s="296"/>
-      <c r="AA17" s="296"/>
-      <c r="AB17" s="296"/>
-      <c r="AC17" s="296"/>
-      <c r="AD17" s="296"/>
-      <c r="AE17" s="297"/>
-      <c r="AF17" s="292"/>
-      <c r="AG17" s="293"/>
-      <c r="AH17" s="293"/>
-      <c r="AI17" s="294"/>
+      <c r="B17" s="250"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="252"/>
+      <c r="E17" s="253"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="250"/>
+      <c r="H17" s="255"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="256"/>
+      <c r="K17" s="257"/>
+      <c r="L17" s="257"/>
+      <c r="M17" s="257"/>
+      <c r="N17" s="257"/>
+      <c r="O17" s="257"/>
+      <c r="P17" s="258"/>
+      <c r="Q17" s="259"/>
+      <c r="R17" s="260"/>
+      <c r="S17" s="260"/>
+      <c r="T17" s="260"/>
+      <c r="U17" s="260"/>
+      <c r="V17" s="260"/>
+      <c r="W17" s="260"/>
+      <c r="X17" s="260"/>
+      <c r="Y17" s="260"/>
+      <c r="Z17" s="260"/>
+      <c r="AA17" s="260"/>
+      <c r="AB17" s="260"/>
+      <c r="AC17" s="260"/>
+      <c r="AD17" s="260"/>
+      <c r="AE17" s="261"/>
+      <c r="AF17" s="256"/>
+      <c r="AG17" s="257"/>
+      <c r="AH17" s="257"/>
+      <c r="AI17" s="258"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="286"/>
-      <c r="C18" s="287"/>
-      <c r="D18" s="288"/>
-      <c r="E18" s="289"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="286"/>
-      <c r="H18" s="291"/>
-      <c r="I18" s="287"/>
-      <c r="J18" s="292"/>
-      <c r="K18" s="293"/>
-      <c r="L18" s="293"/>
-      <c r="M18" s="293"/>
-      <c r="N18" s="293"/>
-      <c r="O18" s="293"/>
-      <c r="P18" s="294"/>
-      <c r="Q18" s="295"/>
-      <c r="R18" s="296"/>
-      <c r="S18" s="296"/>
-      <c r="T18" s="296"/>
-      <c r="U18" s="296"/>
-      <c r="V18" s="296"/>
-      <c r="W18" s="296"/>
-      <c r="X18" s="296"/>
-      <c r="Y18" s="296"/>
-      <c r="Z18" s="296"/>
-      <c r="AA18" s="296"/>
-      <c r="AB18" s="296"/>
-      <c r="AC18" s="296"/>
-      <c r="AD18" s="296"/>
-      <c r="AE18" s="297"/>
-      <c r="AF18" s="292"/>
-      <c r="AG18" s="293"/>
-      <c r="AH18" s="293"/>
-      <c r="AI18" s="294"/>
+      <c r="B18" s="250"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="252"/>
+      <c r="E18" s="253"/>
+      <c r="F18" s="254"/>
+      <c r="G18" s="250"/>
+      <c r="H18" s="255"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="256"/>
+      <c r="K18" s="257"/>
+      <c r="L18" s="257"/>
+      <c r="M18" s="257"/>
+      <c r="N18" s="257"/>
+      <c r="O18" s="257"/>
+      <c r="P18" s="258"/>
+      <c r="Q18" s="259"/>
+      <c r="R18" s="260"/>
+      <c r="S18" s="260"/>
+      <c r="T18" s="260"/>
+      <c r="U18" s="260"/>
+      <c r="V18" s="260"/>
+      <c r="W18" s="260"/>
+      <c r="X18" s="260"/>
+      <c r="Y18" s="260"/>
+      <c r="Z18" s="260"/>
+      <c r="AA18" s="260"/>
+      <c r="AB18" s="260"/>
+      <c r="AC18" s="260"/>
+      <c r="AD18" s="260"/>
+      <c r="AE18" s="261"/>
+      <c r="AF18" s="256"/>
+      <c r="AG18" s="257"/>
+      <c r="AH18" s="257"/>
+      <c r="AI18" s="258"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="286"/>
-      <c r="C19" s="287"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="290"/>
-      <c r="G19" s="286"/>
-      <c r="H19" s="291"/>
-      <c r="I19" s="287"/>
-      <c r="J19" s="292"/>
-      <c r="K19" s="293"/>
-      <c r="L19" s="293"/>
-      <c r="M19" s="293"/>
-      <c r="N19" s="293"/>
-      <c r="O19" s="293"/>
-      <c r="P19" s="294"/>
-      <c r="Q19" s="295"/>
-      <c r="R19" s="296"/>
-      <c r="S19" s="296"/>
-      <c r="T19" s="296"/>
-      <c r="U19" s="296"/>
-      <c r="V19" s="296"/>
-      <c r="W19" s="296"/>
-      <c r="X19" s="296"/>
-      <c r="Y19" s="296"/>
-      <c r="Z19" s="296"/>
-      <c r="AA19" s="296"/>
-      <c r="AB19" s="296"/>
-      <c r="AC19" s="296"/>
-      <c r="AD19" s="296"/>
-      <c r="AE19" s="297"/>
-      <c r="AF19" s="292"/>
-      <c r="AG19" s="293"/>
-      <c r="AH19" s="293"/>
-      <c r="AI19" s="294"/>
+      <c r="B19" s="250"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="252"/>
+      <c r="E19" s="253"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="250"/>
+      <c r="H19" s="255"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="256"/>
+      <c r="K19" s="257"/>
+      <c r="L19" s="257"/>
+      <c r="M19" s="257"/>
+      <c r="N19" s="257"/>
+      <c r="O19" s="257"/>
+      <c r="P19" s="258"/>
+      <c r="Q19" s="259"/>
+      <c r="R19" s="260"/>
+      <c r="S19" s="260"/>
+      <c r="T19" s="260"/>
+      <c r="U19" s="260"/>
+      <c r="V19" s="260"/>
+      <c r="W19" s="260"/>
+      <c r="X19" s="260"/>
+      <c r="Y19" s="260"/>
+      <c r="Z19" s="260"/>
+      <c r="AA19" s="260"/>
+      <c r="AB19" s="260"/>
+      <c r="AC19" s="260"/>
+      <c r="AD19" s="260"/>
+      <c r="AE19" s="261"/>
+      <c r="AF19" s="256"/>
+      <c r="AG19" s="257"/>
+      <c r="AH19" s="257"/>
+      <c r="AI19" s="258"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="286"/>
-      <c r="C20" s="287"/>
-      <c r="D20" s="288"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="290"/>
-      <c r="G20" s="286"/>
-      <c r="H20" s="291"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="292"/>
-      <c r="K20" s="293"/>
-      <c r="L20" s="293"/>
-      <c r="M20" s="293"/>
-      <c r="N20" s="293"/>
-      <c r="O20" s="293"/>
-      <c r="P20" s="294"/>
-      <c r="Q20" s="295"/>
-      <c r="R20" s="296"/>
-      <c r="S20" s="296"/>
-      <c r="T20" s="296"/>
-      <c r="U20" s="296"/>
-      <c r="V20" s="296"/>
-      <c r="W20" s="296"/>
-      <c r="X20" s="296"/>
-      <c r="Y20" s="296"/>
-      <c r="Z20" s="296"/>
-      <c r="AA20" s="296"/>
-      <c r="AB20" s="296"/>
-      <c r="AC20" s="296"/>
-      <c r="AD20" s="296"/>
-      <c r="AE20" s="297"/>
-      <c r="AF20" s="292"/>
-      <c r="AG20" s="293"/>
-      <c r="AH20" s="293"/>
-      <c r="AI20" s="294"/>
+      <c r="B20" s="250"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="252"/>
+      <c r="E20" s="253"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="250"/>
+      <c r="H20" s="255"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="256"/>
+      <c r="K20" s="257"/>
+      <c r="L20" s="257"/>
+      <c r="M20" s="257"/>
+      <c r="N20" s="257"/>
+      <c r="O20" s="257"/>
+      <c r="P20" s="258"/>
+      <c r="Q20" s="259"/>
+      <c r="R20" s="260"/>
+      <c r="S20" s="260"/>
+      <c r="T20" s="260"/>
+      <c r="U20" s="260"/>
+      <c r="V20" s="260"/>
+      <c r="W20" s="260"/>
+      <c r="X20" s="260"/>
+      <c r="Y20" s="260"/>
+      <c r="Z20" s="260"/>
+      <c r="AA20" s="260"/>
+      <c r="AB20" s="260"/>
+      <c r="AC20" s="260"/>
+      <c r="AD20" s="260"/>
+      <c r="AE20" s="261"/>
+      <c r="AF20" s="256"/>
+      <c r="AG20" s="257"/>
+      <c r="AH20" s="257"/>
+      <c r="AI20" s="258"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="286"/>
-      <c r="C21" s="287"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="289"/>
-      <c r="F21" s="290"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="291"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="292"/>
-      <c r="K21" s="293"/>
-      <c r="L21" s="293"/>
-      <c r="M21" s="293"/>
-      <c r="N21" s="293"/>
-      <c r="O21" s="293"/>
-      <c r="P21" s="294"/>
-      <c r="Q21" s="295"/>
-      <c r="R21" s="296"/>
-      <c r="S21" s="296"/>
-      <c r="T21" s="296"/>
-      <c r="U21" s="296"/>
-      <c r="V21" s="296"/>
-      <c r="W21" s="296"/>
-      <c r="X21" s="296"/>
-      <c r="Y21" s="296"/>
-      <c r="Z21" s="296"/>
-      <c r="AA21" s="296"/>
-      <c r="AB21" s="296"/>
-      <c r="AC21" s="296"/>
-      <c r="AD21" s="296"/>
-      <c r="AE21" s="297"/>
-      <c r="AF21" s="292"/>
-      <c r="AG21" s="293"/>
-      <c r="AH21" s="293"/>
-      <c r="AI21" s="294"/>
+      <c r="B21" s="250"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="250"/>
+      <c r="H21" s="255"/>
+      <c r="I21" s="251"/>
+      <c r="J21" s="256"/>
+      <c r="K21" s="257"/>
+      <c r="L21" s="257"/>
+      <c r="M21" s="257"/>
+      <c r="N21" s="257"/>
+      <c r="O21" s="257"/>
+      <c r="P21" s="258"/>
+      <c r="Q21" s="259"/>
+      <c r="R21" s="260"/>
+      <c r="S21" s="260"/>
+      <c r="T21" s="260"/>
+      <c r="U21" s="260"/>
+      <c r="V21" s="260"/>
+      <c r="W21" s="260"/>
+      <c r="X21" s="260"/>
+      <c r="Y21" s="260"/>
+      <c r="Z21" s="260"/>
+      <c r="AA21" s="260"/>
+      <c r="AB21" s="260"/>
+      <c r="AC21" s="260"/>
+      <c r="AD21" s="260"/>
+      <c r="AE21" s="261"/>
+      <c r="AF21" s="256"/>
+      <c r="AG21" s="257"/>
+      <c r="AH21" s="257"/>
+      <c r="AI21" s="258"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="286"/>
-      <c r="C22" s="287"/>
-      <c r="D22" s="288"/>
-      <c r="E22" s="289"/>
-      <c r="F22" s="290"/>
-      <c r="G22" s="286"/>
-      <c r="H22" s="291"/>
-      <c r="I22" s="287"/>
-      <c r="J22" s="292"/>
-      <c r="K22" s="293"/>
-      <c r="L22" s="293"/>
-      <c r="M22" s="293"/>
-      <c r="N22" s="293"/>
-      <c r="O22" s="293"/>
-      <c r="P22" s="294"/>
-      <c r="Q22" s="295"/>
-      <c r="R22" s="296"/>
-      <c r="S22" s="296"/>
-      <c r="T22" s="296"/>
-      <c r="U22" s="296"/>
-      <c r="V22" s="296"/>
-      <c r="W22" s="296"/>
-      <c r="X22" s="296"/>
-      <c r="Y22" s="296"/>
-      <c r="Z22" s="296"/>
-      <c r="AA22" s="296"/>
-      <c r="AB22" s="296"/>
-      <c r="AC22" s="296"/>
-      <c r="AD22" s="296"/>
-      <c r="AE22" s="297"/>
-      <c r="AF22" s="292"/>
-      <c r="AG22" s="293"/>
-      <c r="AH22" s="293"/>
-      <c r="AI22" s="294"/>
+      <c r="B22" s="250"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="252"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="250"/>
+      <c r="H22" s="255"/>
+      <c r="I22" s="251"/>
+      <c r="J22" s="256"/>
+      <c r="K22" s="257"/>
+      <c r="L22" s="257"/>
+      <c r="M22" s="257"/>
+      <c r="N22" s="257"/>
+      <c r="O22" s="257"/>
+      <c r="P22" s="258"/>
+      <c r="Q22" s="259"/>
+      <c r="R22" s="260"/>
+      <c r="S22" s="260"/>
+      <c r="T22" s="260"/>
+      <c r="U22" s="260"/>
+      <c r="V22" s="260"/>
+      <c r="W22" s="260"/>
+      <c r="X22" s="260"/>
+      <c r="Y22" s="260"/>
+      <c r="Z22" s="260"/>
+      <c r="AA22" s="260"/>
+      <c r="AB22" s="260"/>
+      <c r="AC22" s="260"/>
+      <c r="AD22" s="260"/>
+      <c r="AE22" s="261"/>
+      <c r="AF22" s="256"/>
+      <c r="AG22" s="257"/>
+      <c r="AH22" s="257"/>
+      <c r="AI22" s="258"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="286"/>
-      <c r="C23" s="287"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="289"/>
-      <c r="F23" s="290"/>
-      <c r="G23" s="286"/>
-      <c r="H23" s="291"/>
-      <c r="I23" s="287"/>
-      <c r="J23" s="292"/>
-      <c r="K23" s="293"/>
-      <c r="L23" s="293"/>
-      <c r="M23" s="293"/>
-      <c r="N23" s="293"/>
-      <c r="O23" s="293"/>
-      <c r="P23" s="294"/>
-      <c r="Q23" s="295"/>
-      <c r="R23" s="296"/>
-      <c r="S23" s="296"/>
-      <c r="T23" s="296"/>
-      <c r="U23" s="296"/>
-      <c r="V23" s="296"/>
-      <c r="W23" s="296"/>
-      <c r="X23" s="296"/>
-      <c r="Y23" s="296"/>
-      <c r="Z23" s="296"/>
-      <c r="AA23" s="296"/>
-      <c r="AB23" s="296"/>
-      <c r="AC23" s="296"/>
-      <c r="AD23" s="296"/>
-      <c r="AE23" s="297"/>
-      <c r="AF23" s="292"/>
-      <c r="AG23" s="293"/>
-      <c r="AH23" s="293"/>
-      <c r="AI23" s="294"/>
+      <c r="B23" s="250"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="253"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="250"/>
+      <c r="H23" s="255"/>
+      <c r="I23" s="251"/>
+      <c r="J23" s="256"/>
+      <c r="K23" s="257"/>
+      <c r="L23" s="257"/>
+      <c r="M23" s="257"/>
+      <c r="N23" s="257"/>
+      <c r="O23" s="257"/>
+      <c r="P23" s="258"/>
+      <c r="Q23" s="259"/>
+      <c r="R23" s="260"/>
+      <c r="S23" s="260"/>
+      <c r="T23" s="260"/>
+      <c r="U23" s="260"/>
+      <c r="V23" s="260"/>
+      <c r="W23" s="260"/>
+      <c r="X23" s="260"/>
+      <c r="Y23" s="260"/>
+      <c r="Z23" s="260"/>
+      <c r="AA23" s="260"/>
+      <c r="AB23" s="260"/>
+      <c r="AC23" s="260"/>
+      <c r="AD23" s="260"/>
+      <c r="AE23" s="261"/>
+      <c r="AF23" s="256"/>
+      <c r="AG23" s="257"/>
+      <c r="AH23" s="257"/>
+      <c r="AI23" s="258"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="286"/>
-      <c r="C24" s="287"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="289"/>
-      <c r="F24" s="290"/>
-      <c r="G24" s="286"/>
-      <c r="H24" s="291"/>
-      <c r="I24" s="287"/>
-      <c r="J24" s="292"/>
-      <c r="K24" s="293"/>
-      <c r="L24" s="293"/>
-      <c r="M24" s="293"/>
-      <c r="N24" s="293"/>
-      <c r="O24" s="293"/>
-      <c r="P24" s="294"/>
-      <c r="Q24" s="295"/>
-      <c r="R24" s="296"/>
-      <c r="S24" s="296"/>
-      <c r="T24" s="296"/>
-      <c r="U24" s="296"/>
-      <c r="V24" s="296"/>
-      <c r="W24" s="296"/>
-      <c r="X24" s="296"/>
-      <c r="Y24" s="296"/>
-      <c r="Z24" s="296"/>
-      <c r="AA24" s="296"/>
-      <c r="AB24" s="296"/>
-      <c r="AC24" s="296"/>
-      <c r="AD24" s="296"/>
-      <c r="AE24" s="297"/>
-      <c r="AF24" s="292"/>
-      <c r="AG24" s="293"/>
-      <c r="AH24" s="293"/>
-      <c r="AI24" s="294"/>
+      <c r="B24" s="250"/>
+      <c r="C24" s="251"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="253"/>
+      <c r="F24" s="254"/>
+      <c r="G24" s="250"/>
+      <c r="H24" s="255"/>
+      <c r="I24" s="251"/>
+      <c r="J24" s="256"/>
+      <c r="K24" s="257"/>
+      <c r="L24" s="257"/>
+      <c r="M24" s="257"/>
+      <c r="N24" s="257"/>
+      <c r="O24" s="257"/>
+      <c r="P24" s="258"/>
+      <c r="Q24" s="259"/>
+      <c r="R24" s="260"/>
+      <c r="S24" s="260"/>
+      <c r="T24" s="260"/>
+      <c r="U24" s="260"/>
+      <c r="V24" s="260"/>
+      <c r="W24" s="260"/>
+      <c r="X24" s="260"/>
+      <c r="Y24" s="260"/>
+      <c r="Z24" s="260"/>
+      <c r="AA24" s="260"/>
+      <c r="AB24" s="260"/>
+      <c r="AC24" s="260"/>
+      <c r="AD24" s="260"/>
+      <c r="AE24" s="261"/>
+      <c r="AF24" s="256"/>
+      <c r="AG24" s="257"/>
+      <c r="AH24" s="257"/>
+      <c r="AI24" s="258"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="286"/>
-      <c r="C25" s="287"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="289"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="286"/>
-      <c r="H25" s="291"/>
-      <c r="I25" s="287"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="293"/>
-      <c r="M25" s="293"/>
-      <c r="N25" s="293"/>
-      <c r="O25" s="293"/>
-      <c r="P25" s="294"/>
-      <c r="Q25" s="295"/>
-      <c r="R25" s="296"/>
-      <c r="S25" s="296"/>
-      <c r="T25" s="296"/>
-      <c r="U25" s="296"/>
-      <c r="V25" s="296"/>
-      <c r="W25" s="296"/>
-      <c r="X25" s="296"/>
-      <c r="Y25" s="296"/>
-      <c r="Z25" s="296"/>
-      <c r="AA25" s="296"/>
-      <c r="AB25" s="296"/>
-      <c r="AC25" s="296"/>
-      <c r="AD25" s="296"/>
-      <c r="AE25" s="297"/>
-      <c r="AF25" s="292"/>
-      <c r="AG25" s="293"/>
-      <c r="AH25" s="293"/>
-      <c r="AI25" s="294"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="253"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="255"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="256"/>
+      <c r="K25" s="257"/>
+      <c r="L25" s="257"/>
+      <c r="M25" s="257"/>
+      <c r="N25" s="257"/>
+      <c r="O25" s="257"/>
+      <c r="P25" s="258"/>
+      <c r="Q25" s="259"/>
+      <c r="R25" s="260"/>
+      <c r="S25" s="260"/>
+      <c r="T25" s="260"/>
+      <c r="U25" s="260"/>
+      <c r="V25" s="260"/>
+      <c r="W25" s="260"/>
+      <c r="X25" s="260"/>
+      <c r="Y25" s="260"/>
+      <c r="Z25" s="260"/>
+      <c r="AA25" s="260"/>
+      <c r="AB25" s="260"/>
+      <c r="AC25" s="260"/>
+      <c r="AD25" s="260"/>
+      <c r="AE25" s="261"/>
+      <c r="AF25" s="256"/>
+      <c r="AG25" s="257"/>
+      <c r="AH25" s="257"/>
+      <c r="AI25" s="258"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="286"/>
-      <c r="C26" s="287"/>
-      <c r="D26" s="288"/>
-      <c r="E26" s="289"/>
-      <c r="F26" s="290"/>
-      <c r="G26" s="286"/>
-      <c r="H26" s="291"/>
-      <c r="I26" s="287"/>
-      <c r="J26" s="292"/>
-      <c r="K26" s="293"/>
-      <c r="L26" s="293"/>
-      <c r="M26" s="293"/>
-      <c r="N26" s="293"/>
-      <c r="O26" s="293"/>
-      <c r="P26" s="294"/>
-      <c r="Q26" s="295"/>
-      <c r="R26" s="296"/>
-      <c r="S26" s="296"/>
-      <c r="T26" s="296"/>
-      <c r="U26" s="296"/>
-      <c r="V26" s="296"/>
-      <c r="W26" s="296"/>
-      <c r="X26" s="296"/>
-      <c r="Y26" s="296"/>
-      <c r="Z26" s="296"/>
-      <c r="AA26" s="296"/>
-      <c r="AB26" s="296"/>
-      <c r="AC26" s="296"/>
-      <c r="AD26" s="296"/>
-      <c r="AE26" s="297"/>
-      <c r="AF26" s="292"/>
-      <c r="AG26" s="293"/>
-      <c r="AH26" s="293"/>
-      <c r="AI26" s="294"/>
+      <c r="B26" s="250"/>
+      <c r="C26" s="251"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="255"/>
+      <c r="I26" s="251"/>
+      <c r="J26" s="256"/>
+      <c r="K26" s="257"/>
+      <c r="L26" s="257"/>
+      <c r="M26" s="257"/>
+      <c r="N26" s="257"/>
+      <c r="O26" s="257"/>
+      <c r="P26" s="258"/>
+      <c r="Q26" s="259"/>
+      <c r="R26" s="260"/>
+      <c r="S26" s="260"/>
+      <c r="T26" s="260"/>
+      <c r="U26" s="260"/>
+      <c r="V26" s="260"/>
+      <c r="W26" s="260"/>
+      <c r="X26" s="260"/>
+      <c r="Y26" s="260"/>
+      <c r="Z26" s="260"/>
+      <c r="AA26" s="260"/>
+      <c r="AB26" s="260"/>
+      <c r="AC26" s="260"/>
+      <c r="AD26" s="260"/>
+      <c r="AE26" s="261"/>
+      <c r="AF26" s="256"/>
+      <c r="AG26" s="257"/>
+      <c r="AH26" s="257"/>
+      <c r="AI26" s="258"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="286"/>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="286"/>
-      <c r="H27" s="291"/>
-      <c r="I27" s="287"/>
-      <c r="J27" s="292"/>
-      <c r="K27" s="293"/>
-      <c r="L27" s="293"/>
-      <c r="M27" s="293"/>
-      <c r="N27" s="293"/>
-      <c r="O27" s="293"/>
-      <c r="P27" s="294"/>
-      <c r="Q27" s="295"/>
-      <c r="R27" s="296"/>
-      <c r="S27" s="296"/>
-      <c r="T27" s="296"/>
-      <c r="U27" s="296"/>
-      <c r="V27" s="296"/>
-      <c r="W27" s="296"/>
-      <c r="X27" s="296"/>
-      <c r="Y27" s="296"/>
-      <c r="Z27" s="296"/>
-      <c r="AA27" s="296"/>
-      <c r="AB27" s="296"/>
-      <c r="AC27" s="296"/>
-      <c r="AD27" s="296"/>
-      <c r="AE27" s="297"/>
-      <c r="AF27" s="292"/>
-      <c r="AG27" s="293"/>
-      <c r="AH27" s="293"/>
-      <c r="AI27" s="294"/>
+      <c r="B27" s="250"/>
+      <c r="C27" s="251"/>
+      <c r="D27" s="252"/>
+      <c r="E27" s="253"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="250"/>
+      <c r="H27" s="255"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="256"/>
+      <c r="K27" s="257"/>
+      <c r="L27" s="257"/>
+      <c r="M27" s="257"/>
+      <c r="N27" s="257"/>
+      <c r="O27" s="257"/>
+      <c r="P27" s="258"/>
+      <c r="Q27" s="259"/>
+      <c r="R27" s="260"/>
+      <c r="S27" s="260"/>
+      <c r="T27" s="260"/>
+      <c r="U27" s="260"/>
+      <c r="V27" s="260"/>
+      <c r="W27" s="260"/>
+      <c r="X27" s="260"/>
+      <c r="Y27" s="260"/>
+      <c r="Z27" s="260"/>
+      <c r="AA27" s="260"/>
+      <c r="AB27" s="260"/>
+      <c r="AC27" s="260"/>
+      <c r="AD27" s="260"/>
+      <c r="AE27" s="261"/>
+      <c r="AF27" s="256"/>
+      <c r="AG27" s="257"/>
+      <c r="AH27" s="257"/>
+      <c r="AI27" s="258"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="286"/>
-      <c r="C28" s="287"/>
-      <c r="D28" s="288"/>
-      <c r="E28" s="289"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="286"/>
-      <c r="H28" s="291"/>
-      <c r="I28" s="287"/>
-      <c r="J28" s="292"/>
-      <c r="K28" s="293"/>
-      <c r="L28" s="293"/>
-      <c r="M28" s="293"/>
-      <c r="N28" s="293"/>
-      <c r="O28" s="293"/>
-      <c r="P28" s="294"/>
-      <c r="Q28" s="295"/>
-      <c r="R28" s="296"/>
-      <c r="S28" s="296"/>
-      <c r="T28" s="296"/>
-      <c r="U28" s="296"/>
-      <c r="V28" s="296"/>
-      <c r="W28" s="296"/>
-      <c r="X28" s="296"/>
-      <c r="Y28" s="296"/>
-      <c r="Z28" s="296"/>
-      <c r="AA28" s="296"/>
-      <c r="AB28" s="296"/>
-      <c r="AC28" s="296"/>
-      <c r="AD28" s="296"/>
-      <c r="AE28" s="297"/>
-      <c r="AF28" s="292"/>
-      <c r="AG28" s="293"/>
-      <c r="AH28" s="293"/>
-      <c r="AI28" s="294"/>
+      <c r="B28" s="250"/>
+      <c r="C28" s="251"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="253"/>
+      <c r="F28" s="254"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="255"/>
+      <c r="I28" s="251"/>
+      <c r="J28" s="256"/>
+      <c r="K28" s="257"/>
+      <c r="L28" s="257"/>
+      <c r="M28" s="257"/>
+      <c r="N28" s="257"/>
+      <c r="O28" s="257"/>
+      <c r="P28" s="258"/>
+      <c r="Q28" s="259"/>
+      <c r="R28" s="260"/>
+      <c r="S28" s="260"/>
+      <c r="T28" s="260"/>
+      <c r="U28" s="260"/>
+      <c r="V28" s="260"/>
+      <c r="W28" s="260"/>
+      <c r="X28" s="260"/>
+      <c r="Y28" s="260"/>
+      <c r="Z28" s="260"/>
+      <c r="AA28" s="260"/>
+      <c r="AB28" s="260"/>
+      <c r="AC28" s="260"/>
+      <c r="AD28" s="260"/>
+      <c r="AE28" s="261"/>
+      <c r="AF28" s="256"/>
+      <c r="AG28" s="257"/>
+      <c r="AH28" s="257"/>
+      <c r="AI28" s="258"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="286"/>
-      <c r="C29" s="287"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="289"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="286"/>
-      <c r="H29" s="291"/>
-      <c r="I29" s="287"/>
-      <c r="J29" s="292"/>
-      <c r="K29" s="293"/>
-      <c r="L29" s="293"/>
-      <c r="M29" s="293"/>
-      <c r="N29" s="293"/>
-      <c r="O29" s="293"/>
-      <c r="P29" s="294"/>
-      <c r="Q29" s="295"/>
-      <c r="R29" s="296"/>
-      <c r="S29" s="296"/>
-      <c r="T29" s="296"/>
-      <c r="U29" s="296"/>
-      <c r="V29" s="296"/>
-      <c r="W29" s="296"/>
-      <c r="X29" s="296"/>
-      <c r="Y29" s="296"/>
-      <c r="Z29" s="296"/>
-      <c r="AA29" s="296"/>
-      <c r="AB29" s="296"/>
-      <c r="AC29" s="296"/>
-      <c r="AD29" s="296"/>
-      <c r="AE29" s="297"/>
-      <c r="AF29" s="292"/>
-      <c r="AG29" s="293"/>
-      <c r="AH29" s="293"/>
-      <c r="AI29" s="294"/>
+      <c r="B29" s="250"/>
+      <c r="C29" s="251"/>
+      <c r="D29" s="252"/>
+      <c r="E29" s="253"/>
+      <c r="F29" s="254"/>
+      <c r="G29" s="250"/>
+      <c r="H29" s="255"/>
+      <c r="I29" s="251"/>
+      <c r="J29" s="256"/>
+      <c r="K29" s="257"/>
+      <c r="L29" s="257"/>
+      <c r="M29" s="257"/>
+      <c r="N29" s="257"/>
+      <c r="O29" s="257"/>
+      <c r="P29" s="258"/>
+      <c r="Q29" s="259"/>
+      <c r="R29" s="260"/>
+      <c r="S29" s="260"/>
+      <c r="T29" s="260"/>
+      <c r="U29" s="260"/>
+      <c r="V29" s="260"/>
+      <c r="W29" s="260"/>
+      <c r="X29" s="260"/>
+      <c r="Y29" s="260"/>
+      <c r="Z29" s="260"/>
+      <c r="AA29" s="260"/>
+      <c r="AB29" s="260"/>
+      <c r="AC29" s="260"/>
+      <c r="AD29" s="260"/>
+      <c r="AE29" s="261"/>
+      <c r="AF29" s="256"/>
+      <c r="AG29" s="257"/>
+      <c r="AH29" s="257"/>
+      <c r="AI29" s="258"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="286"/>
-      <c r="C30" s="287"/>
-      <c r="D30" s="288"/>
-      <c r="E30" s="289"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="286"/>
-      <c r="H30" s="291"/>
-      <c r="I30" s="287"/>
-      <c r="J30" s="292"/>
-      <c r="K30" s="293"/>
-      <c r="L30" s="293"/>
-      <c r="M30" s="293"/>
-      <c r="N30" s="293"/>
-      <c r="O30" s="293"/>
-      <c r="P30" s="294"/>
-      <c r="Q30" s="295"/>
-      <c r="R30" s="296"/>
-      <c r="S30" s="296"/>
-      <c r="T30" s="296"/>
-      <c r="U30" s="296"/>
-      <c r="V30" s="296"/>
-      <c r="W30" s="296"/>
-      <c r="X30" s="296"/>
-      <c r="Y30" s="296"/>
-      <c r="Z30" s="296"/>
-      <c r="AA30" s="296"/>
-      <c r="AB30" s="296"/>
-      <c r="AC30" s="296"/>
-      <c r="AD30" s="296"/>
-      <c r="AE30" s="297"/>
-      <c r="AF30" s="292"/>
-      <c r="AG30" s="293"/>
-      <c r="AH30" s="293"/>
-      <c r="AI30" s="294"/>
+      <c r="B30" s="250"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="252"/>
+      <c r="E30" s="253"/>
+      <c r="F30" s="254"/>
+      <c r="G30" s="250"/>
+      <c r="H30" s="255"/>
+      <c r="I30" s="251"/>
+      <c r="J30" s="256"/>
+      <c r="K30" s="257"/>
+      <c r="L30" s="257"/>
+      <c r="M30" s="257"/>
+      <c r="N30" s="257"/>
+      <c r="O30" s="257"/>
+      <c r="P30" s="258"/>
+      <c r="Q30" s="259"/>
+      <c r="R30" s="260"/>
+      <c r="S30" s="260"/>
+      <c r="T30" s="260"/>
+      <c r="U30" s="260"/>
+      <c r="V30" s="260"/>
+      <c r="W30" s="260"/>
+      <c r="X30" s="260"/>
+      <c r="Y30" s="260"/>
+      <c r="Z30" s="260"/>
+      <c r="AA30" s="260"/>
+      <c r="AB30" s="260"/>
+      <c r="AC30" s="260"/>
+      <c r="AD30" s="260"/>
+      <c r="AE30" s="261"/>
+      <c r="AF30" s="256"/>
+      <c r="AG30" s="257"/>
+      <c r="AH30" s="257"/>
+      <c r="AI30" s="258"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="286"/>
-      <c r="C31" s="287"/>
-      <c r="D31" s="288"/>
-      <c r="E31" s="289"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="286"/>
-      <c r="H31" s="291"/>
-      <c r="I31" s="287"/>
-      <c r="J31" s="292"/>
-      <c r="K31" s="293"/>
-      <c r="L31" s="293"/>
-      <c r="M31" s="293"/>
-      <c r="N31" s="293"/>
-      <c r="O31" s="293"/>
-      <c r="P31" s="294"/>
-      <c r="Q31" s="295"/>
-      <c r="R31" s="296"/>
-      <c r="S31" s="296"/>
-      <c r="T31" s="296"/>
-      <c r="U31" s="296"/>
-      <c r="V31" s="296"/>
-      <c r="W31" s="296"/>
-      <c r="X31" s="296"/>
-      <c r="Y31" s="296"/>
-      <c r="Z31" s="296"/>
-      <c r="AA31" s="296"/>
-      <c r="AB31" s="296"/>
-      <c r="AC31" s="296"/>
-      <c r="AD31" s="296"/>
-      <c r="AE31" s="297"/>
-      <c r="AF31" s="292"/>
-      <c r="AG31" s="293"/>
-      <c r="AH31" s="293"/>
-      <c r="AI31" s="294"/>
+      <c r="B31" s="250"/>
+      <c r="C31" s="251"/>
+      <c r="D31" s="252"/>
+      <c r="E31" s="253"/>
+      <c r="F31" s="254"/>
+      <c r="G31" s="250"/>
+      <c r="H31" s="255"/>
+      <c r="I31" s="251"/>
+      <c r="J31" s="256"/>
+      <c r="K31" s="257"/>
+      <c r="L31" s="257"/>
+      <c r="M31" s="257"/>
+      <c r="N31" s="257"/>
+      <c r="O31" s="257"/>
+      <c r="P31" s="258"/>
+      <c r="Q31" s="259"/>
+      <c r="R31" s="260"/>
+      <c r="S31" s="260"/>
+      <c r="T31" s="260"/>
+      <c r="U31" s="260"/>
+      <c r="V31" s="260"/>
+      <c r="W31" s="260"/>
+      <c r="X31" s="260"/>
+      <c r="Y31" s="260"/>
+      <c r="Z31" s="260"/>
+      <c r="AA31" s="260"/>
+      <c r="AB31" s="260"/>
+      <c r="AC31" s="260"/>
+      <c r="AD31" s="260"/>
+      <c r="AE31" s="261"/>
+      <c r="AF31" s="256"/>
+      <c r="AG31" s="257"/>
+      <c r="AH31" s="257"/>
+      <c r="AI31" s="258"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="286"/>
-      <c r="C32" s="287"/>
-      <c r="D32" s="288"/>
-      <c r="E32" s="289"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="286"/>
-      <c r="H32" s="291"/>
-      <c r="I32" s="287"/>
-      <c r="J32" s="292"/>
-      <c r="K32" s="311"/>
-      <c r="L32" s="293"/>
-      <c r="M32" s="293"/>
-      <c r="N32" s="293"/>
-      <c r="O32" s="293"/>
-      <c r="P32" s="294"/>
-      <c r="Q32" s="295"/>
-      <c r="R32" s="296"/>
-      <c r="S32" s="296"/>
-      <c r="T32" s="296"/>
-      <c r="U32" s="296"/>
-      <c r="V32" s="296"/>
-      <c r="W32" s="296"/>
-      <c r="X32" s="296"/>
-      <c r="Y32" s="296"/>
-      <c r="Z32" s="296"/>
-      <c r="AA32" s="296"/>
-      <c r="AB32" s="296"/>
-      <c r="AC32" s="296"/>
-      <c r="AD32" s="296"/>
-      <c r="AE32" s="297"/>
-      <c r="AF32" s="292"/>
-      <c r="AG32" s="293"/>
-      <c r="AH32" s="293"/>
-      <c r="AI32" s="294"/>
+      <c r="B32" s="250"/>
+      <c r="C32" s="251"/>
+      <c r="D32" s="252"/>
+      <c r="E32" s="253"/>
+      <c r="F32" s="254"/>
+      <c r="G32" s="250"/>
+      <c r="H32" s="255"/>
+      <c r="I32" s="251"/>
+      <c r="J32" s="256"/>
+      <c r="K32" s="262"/>
+      <c r="L32" s="257"/>
+      <c r="M32" s="257"/>
+      <c r="N32" s="257"/>
+      <c r="O32" s="257"/>
+      <c r="P32" s="258"/>
+      <c r="Q32" s="259"/>
+      <c r="R32" s="260"/>
+      <c r="S32" s="260"/>
+      <c r="T32" s="260"/>
+      <c r="U32" s="260"/>
+      <c r="V32" s="260"/>
+      <c r="W32" s="260"/>
+      <c r="X32" s="260"/>
+      <c r="Y32" s="260"/>
+      <c r="Z32" s="260"/>
+      <c r="AA32" s="260"/>
+      <c r="AB32" s="260"/>
+      <c r="AC32" s="260"/>
+      <c r="AD32" s="260"/>
+      <c r="AE32" s="261"/>
+      <c r="AF32" s="256"/>
+      <c r="AG32" s="257"/>
+      <c r="AH32" s="257"/>
+      <c r="AI32" s="258"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="286"/>
-      <c r="C33" s="287"/>
-      <c r="D33" s="288"/>
-      <c r="E33" s="289"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="286"/>
-      <c r="H33" s="291"/>
-      <c r="I33" s="287"/>
-      <c r="J33" s="292"/>
-      <c r="K33" s="293"/>
-      <c r="L33" s="293"/>
-      <c r="M33" s="293"/>
-      <c r="N33" s="293"/>
-      <c r="O33" s="293"/>
-      <c r="P33" s="294"/>
-      <c r="Q33" s="295"/>
-      <c r="R33" s="296"/>
-      <c r="S33" s="296"/>
-      <c r="T33" s="296"/>
-      <c r="U33" s="296"/>
-      <c r="V33" s="296"/>
-      <c r="W33" s="296"/>
-      <c r="X33" s="296"/>
-      <c r="Y33" s="296"/>
-      <c r="Z33" s="296"/>
-      <c r="AA33" s="296"/>
-      <c r="AB33" s="296"/>
-      <c r="AC33" s="296"/>
-      <c r="AD33" s="296"/>
-      <c r="AE33" s="297"/>
-      <c r="AF33" s="292"/>
-      <c r="AG33" s="293"/>
-      <c r="AH33" s="293"/>
-      <c r="AI33" s="294"/>
+      <c r="B33" s="250"/>
+      <c r="C33" s="251"/>
+      <c r="D33" s="252"/>
+      <c r="E33" s="253"/>
+      <c r="F33" s="254"/>
+      <c r="G33" s="250"/>
+      <c r="H33" s="255"/>
+      <c r="I33" s="251"/>
+      <c r="J33" s="256"/>
+      <c r="K33" s="257"/>
+      <c r="L33" s="257"/>
+      <c r="M33" s="257"/>
+      <c r="N33" s="257"/>
+      <c r="O33" s="257"/>
+      <c r="P33" s="258"/>
+      <c r="Q33" s="259"/>
+      <c r="R33" s="260"/>
+      <c r="S33" s="260"/>
+      <c r="T33" s="260"/>
+      <c r="U33" s="260"/>
+      <c r="V33" s="260"/>
+      <c r="W33" s="260"/>
+      <c r="X33" s="260"/>
+      <c r="Y33" s="260"/>
+      <c r="Z33" s="260"/>
+      <c r="AA33" s="260"/>
+      <c r="AB33" s="260"/>
+      <c r="AC33" s="260"/>
+      <c r="AD33" s="260"/>
+      <c r="AE33" s="261"/>
+      <c r="AF33" s="256"/>
+      <c r="AG33" s="257"/>
+      <c r="AH33" s="257"/>
+      <c r="AI33" s="258"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -8237,6 +8073,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8274,7 +8266,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -8284,20 +8276,20 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>0</v>
@@ -8305,10 +8297,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -8356,10 +8348,10 @@
         <v>89</v>
       </c>
       <c r="F10" s="108" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="114" t="s">
         <v>298</v>
-      </c>
-      <c r="G10" s="114" t="s">
-        <v>299</v>
       </c>
       <c r="H10" s="106" t="s">
         <v>11</v>
@@ -8374,7 +8366,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>4</v>
@@ -8413,20 +8405,20 @@
         <v>82</v>
       </c>
       <c r="J11" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="K11" s="42" t="s">
         <v>331</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>332</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N11" s="231">
         <v>43737</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="44"/>
@@ -8470,7 +8462,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="233" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F13" s="111"/>
       <c r="G13" s="115"/>
@@ -8478,36 +8470,36 @@
         <v>21</v>
       </c>
       <c r="I13" s="235" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J13" s="127" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K13" s="235" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L13" s="236"/>
       <c r="M13" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N13" s="231">
         <v>43737</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P13" s="237"/>
       <c r="Q13" s="238"/>
     </row>
     <row r="14" spans="1:17" s="31" customFormat="1" ht="112.5">
       <c r="A14" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="36"/>
       <c r="D14" s="49"/>
       <c r="E14" s="116" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F14" s="111"/>
       <c r="G14" s="115"/>
@@ -8518,20 +8510,20 @@
         <v>22</v>
       </c>
       <c r="J14" s="127" t="s">
+        <v>386</v>
+      </c>
+      <c r="K14" s="239" t="s">
         <v>387</v>
-      </c>
-      <c r="K14" s="239" t="s">
-        <v>388</v>
       </c>
       <c r="L14" s="240"/>
       <c r="M14" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N14" s="231">
         <v>43737</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P14" s="241"/>
       <c r="Q14" s="238"/>
@@ -8552,7 +8544,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="158" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J15" s="158"/>
       <c r="K15" s="158"/>
@@ -8579,23 +8571,23 @@
         <v>21</v>
       </c>
       <c r="I16" s="243" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J16" s="127" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K16" s="127" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L16" s="244"/>
       <c r="M16" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N16" s="231">
         <v>43737</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P16" s="245"/>
       <c r="Q16" s="238"/>
@@ -8667,10 +8659,10 @@
         <v>167</v>
       </c>
       <c r="F19" s="109" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G19" s="110" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H19" s="52" t="s">
         <v>164</v>
@@ -8698,10 +8690,10 @@
         <v>163</v>
       </c>
       <c r="F20" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G20" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H20" s="52" t="s">
         <v>164</v>
@@ -8729,10 +8721,10 @@
         <v>165</v>
       </c>
       <c r="F21" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G21" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H21" s="52" t="s">
         <v>164</v>
@@ -8760,10 +8752,10 @@
         <v>166</v>
       </c>
       <c r="F22" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G22" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H22" s="52" t="s">
         <v>164</v>
@@ -9037,7 +9029,7 @@
       <c r="C32" s="36"/>
       <c r="D32" s="182"/>
       <c r="E32" s="179" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F32" s="152"/>
       <c r="G32" s="153"/>
@@ -9255,7 +9247,7 @@
         <v>117</v>
       </c>
       <c r="E40" s="179" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F40" s="152"/>
       <c r="G40" s="153"/>
@@ -9629,7 +9621,7 @@
     </row>
     <row r="54" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A54" s="59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B54" s="49" t="s">
         <v>40</v>
@@ -9652,27 +9644,27 @@
         <v>43</v>
       </c>
       <c r="J54" s="69" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K54" s="69" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L54" s="76"/>
       <c r="M54" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N54" s="231">
         <v>43737</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P54" s="34"/>
       <c r="Q54" s="44"/>
     </row>
     <row r="55" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A55" s="59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B55" s="49"/>
       <c r="C55" s="49"/>
@@ -9686,30 +9678,30 @@
         <v>42</v>
       </c>
       <c r="I55" s="60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J55" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L55" s="35"/>
       <c r="M55" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N55" s="231">
         <v>43737</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P55" s="34"/>
       <c r="Q55" s="44"/>
     </row>
     <row r="56" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A56" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
@@ -9723,30 +9715,30 @@
         <v>42</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J56" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="K56" s="54" t="s">
         <v>338</v>
-      </c>
-      <c r="K56" s="54" t="s">
-        <v>339</v>
       </c>
       <c r="L56" s="35"/>
       <c r="M56" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N56" s="231">
         <v>43737</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P56" s="34"/>
       <c r="Q56" s="44"/>
     </row>
     <row r="57" spans="1:17" s="62" customFormat="1" ht="33.75">
       <c r="A57" s="59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B57" s="49"/>
       <c r="C57" s="49"/>
@@ -9763,27 +9755,27 @@
         <v>43</v>
       </c>
       <c r="J57" s="54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L57" s="35"/>
       <c r="M57" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N57" s="231">
         <v>43737</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P57" s="34"/>
       <c r="Q57" s="61"/>
     </row>
     <row r="58" spans="1:17" s="62" customFormat="1" ht="22.5">
       <c r="A58" s="59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B58" s="49"/>
       <c r="C58" s="49"/>
@@ -9797,30 +9789,30 @@
         <v>42</v>
       </c>
       <c r="I58" s="60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J58" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="K58" s="54" t="s">
         <v>374</v>
-      </c>
-      <c r="K58" s="54" t="s">
-        <v>375</v>
       </c>
       <c r="L58" s="35"/>
       <c r="M58" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N58" s="231">
         <v>43737</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P58" s="34"/>
       <c r="Q58" s="61"/>
     </row>
     <row r="59" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A59" s="59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B59" s="49"/>
       <c r="C59" s="49"/>
@@ -9836,7 +9828,7 @@
         <v>42</v>
       </c>
       <c r="I59" s="201" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J59" s="172"/>
       <c r="K59" s="172"/>
@@ -9849,7 +9841,7 @@
     </row>
     <row r="60" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A60" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B60" s="49"/>
       <c r="C60" s="49"/>
@@ -9863,7 +9855,7 @@
         <v>42</v>
       </c>
       <c r="I60" s="201" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J60" s="172"/>
       <c r="K60" s="172"/>
@@ -9876,7 +9868,7 @@
     </row>
     <row r="61" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
@@ -9893,27 +9885,27 @@
         <v>43</v>
       </c>
       <c r="J61" s="54" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L61" s="35"/>
       <c r="M61" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N61" s="231">
         <v>43737</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P61" s="34"/>
       <c r="Q61" s="44"/>
     </row>
     <row r="62" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A62" s="59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B62" s="49"/>
       <c r="C62" s="49"/>
@@ -9932,27 +9924,27 @@
         <v>43</v>
       </c>
       <c r="J62" s="54" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K62" s="54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L62" s="35"/>
       <c r="M62" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N62" s="231">
         <v>43737</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P62" s="34"/>
       <c r="Q62" s="61"/>
     </row>
     <row r="63" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A63" s="59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B63" s="49"/>
       <c r="C63" s="49"/>
@@ -9969,27 +9961,27 @@
         <v>43</v>
       </c>
       <c r="J63" s="54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K63" s="54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L63" s="35"/>
       <c r="M63" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N63" s="231">
         <v>43737</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P63" s="34"/>
       <c r="Q63" s="61"/>
     </row>
     <row r="64" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A64" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B64" s="49"/>
       <c r="C64" s="49"/>
@@ -10018,7 +10010,7 @@
     </row>
     <row r="65" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B65" s="49"/>
       <c r="C65" s="49"/>
@@ -10045,7 +10037,7 @@
     </row>
     <row r="66" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B66" s="49"/>
       <c r="C66" s="49"/>
@@ -10072,7 +10064,7 @@
     </row>
     <row r="67" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B67" s="49"/>
       <c r="C67" s="49"/>
@@ -10081,10 +10073,10 @@
         <v>226</v>
       </c>
       <c r="F67" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G67" s="110" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H67" s="104" t="s">
         <v>131</v>
@@ -10103,7 +10095,7 @@
     </row>
     <row r="68" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B68" s="49"/>
       <c r="C68" s="49"/>
@@ -10130,7 +10122,7 @@
     </row>
     <row r="69" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B69" s="49"/>
       <c r="C69" s="49"/>
@@ -10157,7 +10149,7 @@
     </row>
     <row r="70" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B70" s="49"/>
       <c r="C70" s="49"/>
@@ -10184,13 +10176,13 @@
     </row>
     <row r="71" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B71" s="49"/>
       <c r="C71" s="49"/>
       <c r="D71" s="176"/>
       <c r="E71" s="172" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F71" s="152"/>
       <c r="G71" s="153"/>
@@ -10211,7 +10203,7 @@
     </row>
     <row r="72" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B72" s="49"/>
       <c r="C72" s="49"/>
@@ -10240,7 +10232,7 @@
     </row>
     <row r="73" spans="1:17" s="31" customFormat="1" ht="88.5" customHeight="1">
       <c r="A73" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B73" s="49"/>
       <c r="C73" s="49"/>
@@ -10259,27 +10251,27 @@
         <v>60</v>
       </c>
       <c r="J73" s="246" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K73" s="127" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L73" s="35"/>
       <c r="M73" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N73" s="231">
         <v>43737</v>
       </c>
       <c r="O73" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P73" s="34"/>
       <c r="Q73" s="44"/>
     </row>
     <row r="74" spans="1:17" s="31" customFormat="1" ht="127.5" customHeight="1">
       <c r="A74" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B74" s="49"/>
       <c r="C74" s="49"/>
@@ -10296,27 +10288,27 @@
         <v>60</v>
       </c>
       <c r="J74" s="127" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K74" s="127" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L74" s="35"/>
       <c r="M74" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N74" s="231">
         <v>43737</v>
       </c>
       <c r="O74" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P74" s="34"/>
       <c r="Q74" s="44"/>
     </row>
     <row r="75" spans="1:17" s="31" customFormat="1">
       <c r="A75" s="59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B75" s="49"/>
       <c r="C75" s="49"/>
@@ -10343,7 +10335,7 @@
     </row>
     <row r="76" spans="1:17" s="31" customFormat="1" ht="113.25" customHeight="1">
       <c r="A76" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B76" s="49"/>
       <c r="C76" s="49"/>
@@ -10362,27 +10354,27 @@
         <v>60</v>
       </c>
       <c r="J76" s="246" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K76" s="127" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L76" s="35"/>
       <c r="M76" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N76" s="231">
         <v>43737</v>
       </c>
       <c r="O76" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P76" s="34"/>
       <c r="Q76" s="44"/>
     </row>
     <row r="77" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A77" s="59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B77" s="49"/>
       <c r="C77" s="49"/>
@@ -10399,27 +10391,27 @@
         <v>60</v>
       </c>
       <c r="J77" s="127" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K77" s="127" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L77" s="35"/>
       <c r="M77" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N77" s="231">
         <v>43737</v>
       </c>
       <c r="O77" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P77" s="34"/>
       <c r="Q77" s="44"/>
     </row>
     <row r="78" spans="1:17" s="31" customFormat="1">
       <c r="A78" s="59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B78" s="49"/>
       <c r="C78" s="49"/>
@@ -10446,7 +10438,7 @@
     </row>
     <row r="79" spans="1:17" s="31" customFormat="1">
       <c r="A79" s="59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
@@ -10473,7 +10465,7 @@
     </row>
     <row r="80" spans="1:17" s="31" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B80" s="49"/>
       <c r="C80" s="49"/>
@@ -10482,16 +10474,16 @@
       </c>
       <c r="E80" s="53"/>
       <c r="F80" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G80" s="110" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H80" s="104" t="s">
         <v>131</v>
       </c>
       <c r="I80" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J80" s="54"/>
       <c r="K80" s="54"/>
@@ -10504,7 +10496,7 @@
     </row>
     <row r="81" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A81" s="59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B81" s="49"/>
       <c r="C81" s="47" t="s">
@@ -10523,27 +10515,27 @@
         <v>67</v>
       </c>
       <c r="J81" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="K81" s="127" t="s">
         <v>333</v>
-      </c>
-      <c r="K81" s="127" t="s">
-        <v>334</v>
       </c>
       <c r="L81" s="35"/>
       <c r="M81" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N81" s="231">
         <v>43737</v>
       </c>
       <c r="O81" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P81" s="34"/>
       <c r="Q81" s="44"/>
     </row>
     <row r="82" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A82" s="59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B82" s="49"/>
       <c r="C82" s="49"/>
@@ -10562,27 +10554,27 @@
         <v>67</v>
       </c>
       <c r="J82" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="K82" s="127" t="s">
         <v>333</v>
-      </c>
-      <c r="K82" s="127" t="s">
-        <v>334</v>
       </c>
       <c r="L82" s="35"/>
       <c r="M82" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N82" s="231">
         <v>43737</v>
       </c>
       <c r="O82" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P82" s="34"/>
       <c r="Q82" s="44"/>
     </row>
     <row r="83" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A83" s="59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B83" s="49"/>
       <c r="C83" s="49"/>
@@ -10599,27 +10591,27 @@
         <v>67</v>
       </c>
       <c r="J83" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="K83" s="54" t="s">
         <v>342</v>
-      </c>
-      <c r="K83" s="54" t="s">
-        <v>343</v>
       </c>
       <c r="L83" s="35"/>
       <c r="M83" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N83" s="231">
         <v>43737</v>
       </c>
       <c r="O83" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P83" s="34"/>
       <c r="Q83" s="61"/>
     </row>
     <row r="84" spans="1:17" s="31" customFormat="1" ht="78" customHeight="1">
       <c r="A84" s="59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B84" s="49"/>
       <c r="C84" s="49"/>
@@ -10636,27 +10628,27 @@
         <v>67</v>
       </c>
       <c r="J84" s="127" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K84" s="127" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L84" s="35"/>
       <c r="M84" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N84" s="231">
         <v>43737</v>
       </c>
       <c r="O84" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P84" s="34"/>
       <c r="Q84" s="44"/>
     </row>
     <row r="85" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A85" s="59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B85" s="49"/>
       <c r="C85" s="49"/>
@@ -10673,27 +10665,27 @@
         <v>67</v>
       </c>
       <c r="J85" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="K85" s="127" t="s">
         <v>333</v>
-      </c>
-      <c r="K85" s="127" t="s">
-        <v>334</v>
       </c>
       <c r="L85" s="35"/>
       <c r="M85" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N85" s="231">
         <v>43737</v>
       </c>
       <c r="O85" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P85" s="34"/>
       <c r="Q85" s="44"/>
     </row>
     <row r="86" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A86" s="59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B86" s="49"/>
       <c r="C86" s="49"/>
@@ -10710,27 +10702,27 @@
         <v>67</v>
       </c>
       <c r="J86" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="K86" s="127" t="s">
         <v>333</v>
-      </c>
-      <c r="K86" s="127" t="s">
-        <v>334</v>
       </c>
       <c r="L86" s="35"/>
       <c r="M86" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N86" s="231">
         <v>43737</v>
       </c>
       <c r="O86" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P86" s="34"/>
       <c r="Q86" s="44"/>
     </row>
     <row r="87" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B87" s="49"/>
       <c r="C87" s="49"/>
@@ -10739,10 +10731,10 @@
       </c>
       <c r="E87" s="68"/>
       <c r="F87" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G87" s="110" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H87" s="47" t="s">
         <v>132</v>
@@ -10761,7 +10753,7 @@
     </row>
     <row r="88" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="59" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B88" s="49"/>
       <c r="C88" s="49"/>
@@ -10770,10 +10762,10 @@
       </c>
       <c r="E88" s="68"/>
       <c r="F88" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G88" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H88" s="47" t="s">
         <v>132</v>
@@ -10792,7 +10784,7 @@
     </row>
     <row r="89" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B89" s="49"/>
       <c r="C89" s="49"/>
@@ -10801,10 +10793,10 @@
       </c>
       <c r="E89" s="68"/>
       <c r="F89" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G89" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H89" s="47" t="s">
         <v>132</v>
@@ -10823,7 +10815,7 @@
     </row>
     <row r="90" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B90" s="49"/>
       <c r="C90" s="49"/>
@@ -10832,10 +10824,10 @@
       </c>
       <c r="E90" s="68"/>
       <c r="F90" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G90" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H90" s="47" t="s">
         <v>132</v>
@@ -10854,7 +10846,7 @@
     </row>
     <row r="91" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="59" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B91" s="49"/>
       <c r="C91" s="49"/>
@@ -10863,10 +10855,10 @@
       </c>
       <c r="E91" s="68"/>
       <c r="F91" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G91" s="110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H91" s="47" t="s">
         <v>132</v>
@@ -10885,7 +10877,7 @@
     </row>
     <row r="92" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A92" s="59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B92" s="49"/>
       <c r="C92" s="49"/>
@@ -10912,7 +10904,7 @@
     </row>
     <row r="93" spans="1:17" s="31" customFormat="1" ht="72.75" customHeight="1">
       <c r="A93" s="59" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B93" s="49"/>
       <c r="C93" s="49"/>
@@ -10929,10 +10921,10 @@
         <v>67</v>
       </c>
       <c r="J93" s="127" t="s">
+        <v>394</v>
+      </c>
+      <c r="K93" s="127" t="s">
         <v>395</v>
-      </c>
-      <c r="K93" s="127" t="s">
-        <v>396</v>
       </c>
       <c r="L93" s="35"/>
       <c r="M93" s="33"/>
@@ -10943,7 +10935,7 @@
     </row>
     <row r="94" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A94" s="59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B94" s="49"/>
       <c r="C94" s="49"/>
@@ -10960,27 +10952,27 @@
         <v>67</v>
       </c>
       <c r="J94" s="54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K94" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L94" s="35"/>
       <c r="M94" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N94" s="231">
         <v>43737</v>
       </c>
       <c r="O94" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P94" s="34"/>
       <c r="Q94" s="44"/>
     </row>
     <row r="95" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B95" s="49"/>
       <c r="C95" s="49"/>
@@ -11007,7 +10999,7 @@
     </row>
     <row r="96" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="59" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B96" s="49"/>
       <c r="C96" s="49"/>
@@ -11034,7 +11026,7 @@
     </row>
     <row r="97" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B97" s="49"/>
       <c r="C97" s="49"/>
@@ -11043,10 +11035,10 @@
       </c>
       <c r="E97" s="68"/>
       <c r="F97" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G97" s="110" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H97" s="119" t="s">
         <v>132</v>
@@ -11065,7 +11057,7 @@
     </row>
     <row r="98" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B98" s="49"/>
       <c r="C98" s="49"/>
@@ -11092,7 +11084,7 @@
     </row>
     <row r="99" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B99" s="49"/>
       <c r="C99" s="49"/>
@@ -11119,7 +11111,7 @@
     </row>
     <row r="100" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="87" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B100" s="49"/>
       <c r="C100" s="49"/>
@@ -11146,7 +11138,7 @@
     </row>
     <row r="101" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B101" s="49"/>
       <c r="C101" s="49"/>
@@ -11155,10 +11147,10 @@
       </c>
       <c r="E101" s="81"/>
       <c r="F101" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G101" s="110" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H101" s="49" t="s">
         <v>132</v>
@@ -11177,7 +11169,7 @@
     </row>
     <row r="102" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B102" s="88"/>
       <c r="C102" s="88"/>
@@ -11186,10 +11178,10 @@
       </c>
       <c r="E102" s="90"/>
       <c r="F102" s="109" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G102" s="110" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H102" s="120" t="s">
         <v>132</v>
@@ -11422,7 +11414,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -11432,20 +11424,20 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>0</v>
@@ -11456,7 +11448,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>1</v>
@@ -11486,7 +11478,7 @@
     </row>
     <row r="10" spans="1:17" s="31" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>8</v>
@@ -11501,10 +11493,10 @@
         <v>89</v>
       </c>
       <c r="F10" s="125" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="125" t="s">
         <v>298</v>
-      </c>
-      <c r="G10" s="125" t="s">
-        <v>299</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>11</v>
@@ -11519,7 +11511,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>4</v>
@@ -11539,13 +11531,13 @@
     </row>
     <row r="11" spans="1:17" s="31" customFormat="1" ht="78.75">
       <c r="A11" s="135" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B11" s="136" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="136" t="s">
-        <v>231</v>
+        <v>403</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>96</v>
@@ -11554,33 +11546,33 @@
       <c r="F11" s="121"/>
       <c r="G11" s="121"/>
       <c r="H11" s="136" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I11" s="136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J11" s="63" t="s">
+        <v>347</v>
+      </c>
+      <c r="K11" s="63" t="s">
         <v>348</v>
-      </c>
-      <c r="K11" s="63" t="s">
-        <v>349</v>
       </c>
       <c r="L11" s="150"/>
       <c r="M11" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N11" s="231">
         <v>43737</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P11" s="126"/>
       <c r="Q11" s="126"/>
     </row>
     <row r="12" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A12" s="137" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
@@ -11591,7 +11583,7 @@
       <c r="F12" s="121"/>
       <c r="G12" s="121"/>
       <c r="H12" s="220" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I12" s="220" t="s">
         <v>97</v>
@@ -11607,7 +11599,7 @@
     </row>
     <row r="13" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="137" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
@@ -11618,7 +11610,7 @@
       <c r="F13" s="121"/>
       <c r="G13" s="121"/>
       <c r="H13" s="220" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I13" s="220" t="s">
         <v>97</v>
@@ -11634,7 +11626,7 @@
     </row>
     <row r="14" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A14" s="137" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
@@ -11645,7 +11637,7 @@
       <c r="F14" s="121"/>
       <c r="G14" s="121"/>
       <c r="H14" s="220" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I14" s="220" t="s">
         <v>97</v>
@@ -11661,7 +11653,7 @@
     </row>
     <row r="15" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="137" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
@@ -11674,33 +11666,33 @@
       <c r="F15" s="121"/>
       <c r="G15" s="121"/>
       <c r="H15" s="136" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I15" s="136" t="s">
         <v>97</v>
       </c>
       <c r="J15" s="127" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K15" s="127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L15" s="128"/>
       <c r="M15" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N15" s="231">
         <v>43737</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P15" s="129"/>
       <c r="Q15" s="129"/>
     </row>
     <row r="16" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="137" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
@@ -11711,7 +11703,7 @@
       <c r="F16" s="121"/>
       <c r="G16" s="121"/>
       <c r="H16" s="220" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I16" s="220" t="s">
         <v>97</v>
@@ -11727,7 +11719,7 @@
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="137" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
@@ -11738,7 +11730,7 @@
       <c r="F17" s="121"/>
       <c r="G17" s="121"/>
       <c r="H17" s="220" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I17" s="220" t="s">
         <v>97</v>
@@ -11754,7 +11746,7 @@
     </row>
     <row r="18" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="137" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
@@ -11765,33 +11757,33 @@
       <c r="F18" s="121"/>
       <c r="G18" s="121"/>
       <c r="H18" s="136" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I18" s="136" t="s">
         <v>97</v>
       </c>
       <c r="J18" s="127" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K18" s="127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L18" s="128"/>
       <c r="M18" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N18" s="231">
         <v>43737</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P18" s="129"/>
       <c r="Q18" s="129"/>
     </row>
     <row r="19" spans="1:17" s="31" customFormat="1" ht="56.25" customHeight="1">
       <c r="A19" s="137" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="71"/>
@@ -11802,27 +11794,27 @@
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="127" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L19" s="128"/>
       <c r="M19" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N19" s="231">
         <v>43737</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P19" s="129"/>
       <c r="Q19" s="129"/>
     </row>
     <row r="20" spans="1:17" s="31" customFormat="1" ht="53.25" customHeight="1">
       <c r="A20" s="137" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
@@ -11833,27 +11825,27 @@
       <c r="H20" s="49"/>
       <c r="I20" s="49"/>
       <c r="J20" s="127" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K20" s="127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L20" s="128"/>
       <c r="M20" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N20" s="231">
         <v>43737</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P20" s="129"/>
       <c r="Q20" s="129"/>
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" ht="68.25" customHeight="1">
       <c r="A21" s="137" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>
@@ -11864,32 +11856,32 @@
       <c r="H21" s="58"/>
       <c r="I21" s="58"/>
       <c r="J21" s="127" t="s">
+        <v>357</v>
+      </c>
+      <c r="K21" s="127" t="s">
         <v>358</v>
-      </c>
-      <c r="K21" s="127" t="s">
-        <v>359</v>
       </c>
       <c r="L21" s="128"/>
       <c r="M21" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N21" s="231">
         <v>43737</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P21" s="129"/>
       <c r="Q21" s="129"/>
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A22" s="137" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>
       <c r="D22" s="225" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E22" s="226" t="s">
         <v>104</v>
@@ -11897,7 +11889,7 @@
       <c r="F22" s="121"/>
       <c r="G22" s="121"/>
       <c r="H22" s="220" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I22" s="220" t="s">
         <v>97</v>
@@ -11913,7 +11905,7 @@
     </row>
     <row r="23" spans="1:17" s="31" customFormat="1" ht="58.5" customHeight="1">
       <c r="A23" s="137" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B23" s="71"/>
       <c r="C23" s="71"/>
@@ -11921,75 +11913,75 @@
         <v>135</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F23" s="121"/>
       <c r="G23" s="121"/>
       <c r="H23" s="136" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I23" s="136" t="s">
         <v>97</v>
       </c>
       <c r="J23" s="127" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K23" s="127" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L23" s="130"/>
       <c r="M23" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N23" s="231">
         <v>43737</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P23" s="131"/>
       <c r="Q23" s="131"/>
     </row>
     <row r="24" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A24" s="137" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="71"/>
       <c r="D24" s="312" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E24" s="313"/>
       <c r="F24" s="121"/>
       <c r="G24" s="121"/>
       <c r="H24" s="136" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I24" s="136" t="s">
         <v>97</v>
       </c>
       <c r="J24" s="127" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K24" s="127" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L24" s="130"/>
       <c r="M24" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N24" s="231">
         <v>43737</v>
       </c>
       <c r="O24" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P24" s="131"/>
       <c r="Q24" s="131"/>
     </row>
     <row r="25" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A25" s="137" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="247" t="s">
@@ -12002,7 +11994,7 @@
       <c r="F25" s="121"/>
       <c r="G25" s="121"/>
       <c r="H25" s="220" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I25" s="220" t="s">
         <v>97</v>
@@ -12018,7 +12010,7 @@
     </row>
     <row r="26" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A26" s="137" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B26" s="72"/>
       <c r="C26" s="248"/>
@@ -12029,7 +12021,7 @@
       <c r="F26" s="121"/>
       <c r="G26" s="121"/>
       <c r="H26" s="220" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I26" s="220" t="s">
         <v>97</v>
@@ -12045,10 +12037,10 @@
     </row>
     <row r="27" spans="1:17" s="31" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A27" s="137" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B27" s="136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C27" s="140" t="s">
         <v>134</v>
@@ -12056,16 +12048,16 @@
       <c r="D27" s="123"/>
       <c r="E27" s="124"/>
       <c r="F27" s="121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G27" s="122" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H27" s="73" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J27" s="127"/>
       <c r="K27" s="127"/>
@@ -12078,25 +12070,25 @@
     </row>
     <row r="28" spans="1:17" s="31" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A28" s="141" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B28" s="101"/>
       <c r="C28" s="142" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D28" s="143"/>
       <c r="E28" s="144"/>
       <c r="F28" s="121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G28" s="121" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H28" s="149" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I28" s="149" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J28" s="132"/>
       <c r="K28" s="132"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10101_ログイン.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書_取引単体(画面)_WA10101_ログイン.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582E0A38-E72F-49C5-A91C-C7DDD41832E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115146A4-DCD0-464B-92DC-3EA4A8DD08C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -24,7 +24,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.2. 取引単体テスト'!$1:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1709,6 +1717,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>画面遷移パターン(※1)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>UI部品動作確認</t>
     <rPh sb="2" eb="4">
       <t>ブヒン</t>
@@ -3115,16 +3133,6 @@
   </si>
   <si>
     <t>シナリオID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面遷移パターン</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5176,6 +5184,114 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5212,9 +5328,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5254,112 +5367,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6835,57 +6843,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="285" t="s">
-        <v>369</v>
-      </c>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="291" t="s">
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="259" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="261"/>
+      <c r="O1" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="292"/>
-      <c r="Q1" s="292"/>
-      <c r="R1" s="293"/>
-      <c r="S1" s="300" t="s">
+      <c r="P1" s="266"/>
+      <c r="Q1" s="266"/>
+      <c r="R1" s="267"/>
+      <c r="S1" s="274" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="301"/>
-      <c r="U1" s="301"/>
-      <c r="V1" s="301"/>
-      <c r="W1" s="301"/>
-      <c r="X1" s="301"/>
-      <c r="Y1" s="301"/>
-      <c r="Z1" s="302"/>
-      <c r="AA1" s="282" t="s">
+      <c r="T1" s="275"/>
+      <c r="U1" s="275"/>
+      <c r="V1" s="275"/>
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="276"/>
+      <c r="AA1" s="256" t="s">
         <v>143</v>
       </c>
-      <c r="AB1" s="284"/>
-      <c r="AC1" s="309" t="str">
+      <c r="AB1" s="258"/>
+      <c r="AC1" s="283" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="310"/>
-      <c r="AE1" s="310"/>
-      <c r="AF1" s="311"/>
-      <c r="AG1" s="276">
+      <c r="AD1" s="284"/>
+      <c r="AE1" s="284"/>
+      <c r="AF1" s="285"/>
+      <c r="AG1" s="250">
         <f>IF(D8="","",D8)</f>
         <v>43737</v>
       </c>
-      <c r="AH1" s="277"/>
-      <c r="AI1" s="278"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="252"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -6893,53 +6901,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="256" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="285" t="s">
-        <v>370</v>
-      </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="286"/>
-      <c r="N2" s="287"/>
-      <c r="O2" s="294"/>
-      <c r="P2" s="295"/>
-      <c r="Q2" s="295"/>
-      <c r="R2" s="296"/>
-      <c r="S2" s="303"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="304"/>
-      <c r="X2" s="304"/>
-      <c r="Y2" s="304"/>
-      <c r="Z2" s="305"/>
-      <c r="AA2" s="282" t="s">
+      <c r="B2" s="257"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="259" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
+      <c r="L2" s="260"/>
+      <c r="M2" s="260"/>
+      <c r="N2" s="261"/>
+      <c r="O2" s="268"/>
+      <c r="P2" s="269"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="270"/>
+      <c r="S2" s="277"/>
+      <c r="T2" s="278"/>
+      <c r="U2" s="278"/>
+      <c r="V2" s="278"/>
+      <c r="W2" s="278"/>
+      <c r="X2" s="278"/>
+      <c r="Y2" s="278"/>
+      <c r="Z2" s="279"/>
+      <c r="AA2" s="256" t="s">
         <v>145</v>
       </c>
-      <c r="AB2" s="284"/>
-      <c r="AC2" s="288" t="str">
+      <c r="AB2" s="258"/>
+      <c r="AC2" s="262" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="289"/>
-      <c r="AE2" s="289"/>
-      <c r="AF2" s="290"/>
-      <c r="AG2" s="276" t="str">
+      <c r="AD2" s="263"/>
+      <c r="AE2" s="263"/>
+      <c r="AF2" s="264"/>
+      <c r="AG2" s="250" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="277"/>
-      <c r="AI2" s="278"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="252"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -6947,45 +6955,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="256" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="285" t="s">
-        <v>371</v>
-      </c>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="286"/>
-      <c r="J3" s="286"/>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="286"/>
-      <c r="N3" s="287"/>
-      <c r="O3" s="297"/>
-      <c r="P3" s="298"/>
-      <c r="Q3" s="298"/>
-      <c r="R3" s="299"/>
-      <c r="S3" s="306"/>
-      <c r="T3" s="307"/>
-      <c r="U3" s="307"/>
-      <c r="V3" s="307"/>
-      <c r="W3" s="307"/>
-      <c r="X3" s="307"/>
-      <c r="Y3" s="307"/>
-      <c r="Z3" s="308"/>
-      <c r="AA3" s="282"/>
-      <c r="AB3" s="284"/>
-      <c r="AC3" s="309"/>
-      <c r="AD3" s="310"/>
-      <c r="AE3" s="310"/>
-      <c r="AF3" s="311"/>
-      <c r="AG3" s="276"/>
-      <c r="AH3" s="277"/>
-      <c r="AI3" s="278"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="259" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="260"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="260"/>
+      <c r="N3" s="261"/>
+      <c r="O3" s="271"/>
+      <c r="P3" s="272"/>
+      <c r="Q3" s="272"/>
+      <c r="R3" s="273"/>
+      <c r="S3" s="280"/>
+      <c r="T3" s="281"/>
+      <c r="U3" s="281"/>
+      <c r="V3" s="281"/>
+      <c r="W3" s="281"/>
+      <c r="X3" s="281"/>
+      <c r="Y3" s="281"/>
+      <c r="Z3" s="282"/>
+      <c r="AA3" s="256"/>
+      <c r="AB3" s="258"/>
+      <c r="AC3" s="283"/>
+      <c r="AD3" s="284"/>
+      <c r="AE3" s="284"/>
+      <c r="AF3" s="285"/>
+      <c r="AG3" s="250"/>
+      <c r="AH3" s="251"/>
+      <c r="AI3" s="252"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -7022,1034 +7030,1190 @@
       <c r="A7" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="279" t="s">
+      <c r="B7" s="253" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="280"/>
-      <c r="D7" s="279" t="s">
+      <c r="C7" s="254"/>
+      <c r="D7" s="253" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="281"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="279" t="s">
+      <c r="E7" s="255"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="253" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="281"/>
-      <c r="I7" s="280"/>
-      <c r="J7" s="279" t="s">
+      <c r="H7" s="255"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="253" t="s">
         <v>151</v>
       </c>
-      <c r="K7" s="281"/>
-      <c r="L7" s="281"/>
-      <c r="M7" s="281"/>
-      <c r="N7" s="281"/>
-      <c r="O7" s="281"/>
-      <c r="P7" s="280"/>
-      <c r="Q7" s="279" t="s">
+      <c r="K7" s="255"/>
+      <c r="L7" s="255"/>
+      <c r="M7" s="255"/>
+      <c r="N7" s="255"/>
+      <c r="O7" s="255"/>
+      <c r="P7" s="254"/>
+      <c r="Q7" s="253" t="s">
         <v>152</v>
       </c>
-      <c r="R7" s="281"/>
-      <c r="S7" s="281"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="281"/>
-      <c r="V7" s="281"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="281"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="281"/>
-      <c r="AA7" s="281"/>
-      <c r="AB7" s="281"/>
-      <c r="AC7" s="281"/>
-      <c r="AD7" s="281"/>
-      <c r="AE7" s="280"/>
-      <c r="AF7" s="279" t="s">
+      <c r="R7" s="255"/>
+      <c r="S7" s="255"/>
+      <c r="T7" s="255"/>
+      <c r="U7" s="255"/>
+      <c r="V7" s="255"/>
+      <c r="W7" s="255"/>
+      <c r="X7" s="255"/>
+      <c r="Y7" s="255"/>
+      <c r="Z7" s="255"/>
+      <c r="AA7" s="255"/>
+      <c r="AB7" s="255"/>
+      <c r="AC7" s="255"/>
+      <c r="AD7" s="255"/>
+      <c r="AE7" s="254"/>
+      <c r="AF7" s="253" t="s">
         <v>153</v>
       </c>
-      <c r="AG7" s="281"/>
-      <c r="AH7" s="281"/>
-      <c r="AI7" s="280"/>
+      <c r="AG7" s="255"/>
+      <c r="AH7" s="255"/>
+      <c r="AI7" s="254"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="263" t="s">
-        <v>364</v>
-      </c>
-      <c r="C8" s="264"/>
-      <c r="D8" s="265">
+      <c r="B8" s="298" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="299"/>
+      <c r="D8" s="300">
         <v>43737</v>
       </c>
-      <c r="E8" s="266"/>
-      <c r="F8" s="267"/>
-      <c r="G8" s="268" t="s">
-        <v>365</v>
-      </c>
-      <c r="H8" s="269"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="270" t="s">
+      <c r="E8" s="301"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="303" t="s">
         <v>366</v>
       </c>
-      <c r="K8" s="271"/>
-      <c r="L8" s="271"/>
-      <c r="M8" s="271"/>
-      <c r="N8" s="271"/>
-      <c r="O8" s="271"/>
-      <c r="P8" s="272"/>
-      <c r="Q8" s="273" t="s">
+      <c r="H8" s="304"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="305" t="s">
         <v>367</v>
       </c>
-      <c r="R8" s="274"/>
-      <c r="S8" s="274"/>
-      <c r="T8" s="274"/>
-      <c r="U8" s="274"/>
-      <c r="V8" s="274"/>
-      <c r="W8" s="274"/>
-      <c r="X8" s="274"/>
-      <c r="Y8" s="274"/>
-      <c r="Z8" s="274"/>
-      <c r="AA8" s="274"/>
-      <c r="AB8" s="274"/>
-      <c r="AC8" s="274"/>
-      <c r="AD8" s="274"/>
-      <c r="AE8" s="275"/>
-      <c r="AF8" s="270" t="s">
+      <c r="K8" s="306"/>
+      <c r="L8" s="306"/>
+      <c r="M8" s="306"/>
+      <c r="N8" s="306"/>
+      <c r="O8" s="306"/>
+      <c r="P8" s="307"/>
+      <c r="Q8" s="308" t="s">
         <v>368</v>
       </c>
-      <c r="AG8" s="271"/>
-      <c r="AH8" s="271"/>
-      <c r="AI8" s="272"/>
+      <c r="R8" s="309"/>
+      <c r="S8" s="309"/>
+      <c r="T8" s="309"/>
+      <c r="U8" s="309"/>
+      <c r="V8" s="309"/>
+      <c r="W8" s="309"/>
+      <c r="X8" s="309"/>
+      <c r="Y8" s="309"/>
+      <c r="Z8" s="309"/>
+      <c r="AA8" s="309"/>
+      <c r="AB8" s="309"/>
+      <c r="AC8" s="309"/>
+      <c r="AD8" s="309"/>
+      <c r="AE8" s="310"/>
+      <c r="AF8" s="305" t="s">
+        <v>369</v>
+      </c>
+      <c r="AG8" s="306"/>
+      <c r="AH8" s="306"/>
+      <c r="AI8" s="307"/>
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="250"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="252"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="252"/>
-      <c r="H9" s="255"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="256"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="257"/>
-      <c r="P9" s="258"/>
-      <c r="Q9" s="259"/>
-      <c r="R9" s="260"/>
-      <c r="S9" s="260"/>
-      <c r="T9" s="260"/>
-      <c r="U9" s="260"/>
-      <c r="V9" s="260"/>
-      <c r="W9" s="260"/>
-      <c r="X9" s="260"/>
-      <c r="Y9" s="260"/>
-      <c r="Z9" s="260"/>
-      <c r="AA9" s="260"/>
-      <c r="AB9" s="260"/>
-      <c r="AC9" s="260"/>
-      <c r="AD9" s="260"/>
-      <c r="AE9" s="261"/>
-      <c r="AF9" s="256"/>
-      <c r="AG9" s="257"/>
-      <c r="AH9" s="257"/>
-      <c r="AI9" s="258"/>
+      <c r="B9" s="286"/>
+      <c r="C9" s="287"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="288"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="287"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="293"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="293"/>
+      <c r="P9" s="294"/>
+      <c r="Q9" s="295"/>
+      <c r="R9" s="296"/>
+      <c r="S9" s="296"/>
+      <c r="T9" s="296"/>
+      <c r="U9" s="296"/>
+      <c r="V9" s="296"/>
+      <c r="W9" s="296"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="296"/>
+      <c r="Z9" s="296"/>
+      <c r="AA9" s="296"/>
+      <c r="AB9" s="296"/>
+      <c r="AC9" s="296"/>
+      <c r="AD9" s="296"/>
+      <c r="AE9" s="297"/>
+      <c r="AF9" s="292"/>
+      <c r="AG9" s="293"/>
+      <c r="AH9" s="293"/>
+      <c r="AI9" s="294"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="250"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="252"/>
-      <c r="E10" s="253"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="250"/>
-      <c r="H10" s="255"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="256"/>
-      <c r="K10" s="257"/>
-      <c r="L10" s="257"/>
-      <c r="M10" s="257"/>
-      <c r="N10" s="257"/>
-      <c r="O10" s="257"/>
-      <c r="P10" s="258"/>
-      <c r="Q10" s="259"/>
-      <c r="R10" s="260"/>
-      <c r="S10" s="260"/>
-      <c r="T10" s="260"/>
-      <c r="U10" s="260"/>
-      <c r="V10" s="260"/>
-      <c r="W10" s="260"/>
-      <c r="X10" s="260"/>
-      <c r="Y10" s="260"/>
-      <c r="Z10" s="260"/>
-      <c r="AA10" s="260"/>
-      <c r="AB10" s="260"/>
-      <c r="AC10" s="260"/>
-      <c r="AD10" s="260"/>
-      <c r="AE10" s="261"/>
-      <c r="AF10" s="256"/>
-      <c r="AG10" s="257"/>
-      <c r="AH10" s="257"/>
-      <c r="AI10" s="258"/>
+      <c r="B10" s="286"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="288"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="286"/>
+      <c r="H10" s="291"/>
+      <c r="I10" s="287"/>
+      <c r="J10" s="292"/>
+      <c r="K10" s="293"/>
+      <c r="L10" s="293"/>
+      <c r="M10" s="293"/>
+      <c r="N10" s="293"/>
+      <c r="O10" s="293"/>
+      <c r="P10" s="294"/>
+      <c r="Q10" s="295"/>
+      <c r="R10" s="296"/>
+      <c r="S10" s="296"/>
+      <c r="T10" s="296"/>
+      <c r="U10" s="296"/>
+      <c r="V10" s="296"/>
+      <c r="W10" s="296"/>
+      <c r="X10" s="296"/>
+      <c r="Y10" s="296"/>
+      <c r="Z10" s="296"/>
+      <c r="AA10" s="296"/>
+      <c r="AB10" s="296"/>
+      <c r="AC10" s="296"/>
+      <c r="AD10" s="296"/>
+      <c r="AE10" s="297"/>
+      <c r="AF10" s="292"/>
+      <c r="AG10" s="293"/>
+      <c r="AH10" s="293"/>
+      <c r="AI10" s="294"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="22"/>
-      <c r="B11" s="250"/>
-      <c r="C11" s="251"/>
-      <c r="D11" s="252"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="254"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="255"/>
-      <c r="I11" s="251"/>
-      <c r="J11" s="256"/>
-      <c r="K11" s="257"/>
-      <c r="L11" s="257"/>
-      <c r="M11" s="257"/>
-      <c r="N11" s="257"/>
-      <c r="O11" s="257"/>
-      <c r="P11" s="258"/>
-      <c r="Q11" s="259"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="260"/>
-      <c r="T11" s="260"/>
-      <c r="U11" s="260"/>
-      <c r="V11" s="260"/>
-      <c r="W11" s="260"/>
-      <c r="X11" s="260"/>
-      <c r="Y11" s="260"/>
-      <c r="Z11" s="260"/>
-      <c r="AA11" s="260"/>
-      <c r="AB11" s="260"/>
-      <c r="AC11" s="260"/>
-      <c r="AD11" s="260"/>
-      <c r="AE11" s="261"/>
-      <c r="AF11" s="256"/>
-      <c r="AG11" s="257"/>
-      <c r="AH11" s="257"/>
-      <c r="AI11" s="258"/>
+      <c r="B11" s="286"/>
+      <c r="C11" s="287"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="289"/>
+      <c r="F11" s="290"/>
+      <c r="G11" s="286"/>
+      <c r="H11" s="291"/>
+      <c r="I11" s="287"/>
+      <c r="J11" s="292"/>
+      <c r="K11" s="293"/>
+      <c r="L11" s="293"/>
+      <c r="M11" s="293"/>
+      <c r="N11" s="293"/>
+      <c r="O11" s="293"/>
+      <c r="P11" s="294"/>
+      <c r="Q11" s="295"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="296"/>
+      <c r="T11" s="296"/>
+      <c r="U11" s="296"/>
+      <c r="V11" s="296"/>
+      <c r="W11" s="296"/>
+      <c r="X11" s="296"/>
+      <c r="Y11" s="296"/>
+      <c r="Z11" s="296"/>
+      <c r="AA11" s="296"/>
+      <c r="AB11" s="296"/>
+      <c r="AC11" s="296"/>
+      <c r="AD11" s="296"/>
+      <c r="AE11" s="297"/>
+      <c r="AF11" s="292"/>
+      <c r="AG11" s="293"/>
+      <c r="AH11" s="293"/>
+      <c r="AI11" s="294"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="250"/>
-      <c r="C12" s="251"/>
-      <c r="D12" s="252"/>
-      <c r="E12" s="253"/>
-      <c r="F12" s="254"/>
-      <c r="G12" s="250"/>
-      <c r="H12" s="255"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="256"/>
-      <c r="K12" s="257"/>
-      <c r="L12" s="257"/>
-      <c r="M12" s="257"/>
-      <c r="N12" s="257"/>
-      <c r="O12" s="257"/>
-      <c r="P12" s="258"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="260"/>
-      <c r="S12" s="260"/>
-      <c r="T12" s="260"/>
-      <c r="U12" s="260"/>
-      <c r="V12" s="260"/>
-      <c r="W12" s="260"/>
-      <c r="X12" s="260"/>
-      <c r="Y12" s="260"/>
-      <c r="Z12" s="260"/>
-      <c r="AA12" s="260"/>
-      <c r="AB12" s="260"/>
-      <c r="AC12" s="260"/>
-      <c r="AD12" s="260"/>
-      <c r="AE12" s="261"/>
-      <c r="AF12" s="256"/>
-      <c r="AG12" s="257"/>
-      <c r="AH12" s="257"/>
-      <c r="AI12" s="258"/>
+      <c r="B12" s="286"/>
+      <c r="C12" s="287"/>
+      <c r="D12" s="288"/>
+      <c r="E12" s="289"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="286"/>
+      <c r="H12" s="291"/>
+      <c r="I12" s="287"/>
+      <c r="J12" s="292"/>
+      <c r="K12" s="293"/>
+      <c r="L12" s="293"/>
+      <c r="M12" s="293"/>
+      <c r="N12" s="293"/>
+      <c r="O12" s="293"/>
+      <c r="P12" s="294"/>
+      <c r="Q12" s="295"/>
+      <c r="R12" s="296"/>
+      <c r="S12" s="296"/>
+      <c r="T12" s="296"/>
+      <c r="U12" s="296"/>
+      <c r="V12" s="296"/>
+      <c r="W12" s="296"/>
+      <c r="X12" s="296"/>
+      <c r="Y12" s="296"/>
+      <c r="Z12" s="296"/>
+      <c r="AA12" s="296"/>
+      <c r="AB12" s="296"/>
+      <c r="AC12" s="296"/>
+      <c r="AD12" s="296"/>
+      <c r="AE12" s="297"/>
+      <c r="AF12" s="292"/>
+      <c r="AG12" s="293"/>
+      <c r="AH12" s="293"/>
+      <c r="AI12" s="294"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="22"/>
-      <c r="B13" s="250"/>
-      <c r="C13" s="251"/>
-      <c r="D13" s="252"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="250"/>
-      <c r="H13" s="255"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="257"/>
-      <c r="L13" s="257"/>
-      <c r="M13" s="257"/>
-      <c r="N13" s="257"/>
-      <c r="O13" s="257"/>
-      <c r="P13" s="258"/>
-      <c r="Q13" s="259"/>
-      <c r="R13" s="260"/>
-      <c r="S13" s="260"/>
-      <c r="T13" s="260"/>
-      <c r="U13" s="260"/>
-      <c r="V13" s="260"/>
-      <c r="W13" s="260"/>
-      <c r="X13" s="260"/>
-      <c r="Y13" s="260"/>
-      <c r="Z13" s="260"/>
-      <c r="AA13" s="260"/>
-      <c r="AB13" s="260"/>
-      <c r="AC13" s="260"/>
-      <c r="AD13" s="260"/>
-      <c r="AE13" s="261"/>
-      <c r="AF13" s="256"/>
-      <c r="AG13" s="257"/>
-      <c r="AH13" s="257"/>
-      <c r="AI13" s="258"/>
+      <c r="B13" s="286"/>
+      <c r="C13" s="287"/>
+      <c r="D13" s="288"/>
+      <c r="E13" s="289"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="286"/>
+      <c r="H13" s="291"/>
+      <c r="I13" s="287"/>
+      <c r="J13" s="292"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="293"/>
+      <c r="M13" s="293"/>
+      <c r="N13" s="293"/>
+      <c r="O13" s="293"/>
+      <c r="P13" s="294"/>
+      <c r="Q13" s="295"/>
+      <c r="R13" s="296"/>
+      <c r="S13" s="296"/>
+      <c r="T13" s="296"/>
+      <c r="U13" s="296"/>
+      <c r="V13" s="296"/>
+      <c r="W13" s="296"/>
+      <c r="X13" s="296"/>
+      <c r="Y13" s="296"/>
+      <c r="Z13" s="296"/>
+      <c r="AA13" s="296"/>
+      <c r="AB13" s="296"/>
+      <c r="AC13" s="296"/>
+      <c r="AD13" s="296"/>
+      <c r="AE13" s="297"/>
+      <c r="AF13" s="292"/>
+      <c r="AG13" s="293"/>
+      <c r="AH13" s="293"/>
+      <c r="AI13" s="294"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="22"/>
-      <c r="B14" s="250"/>
-      <c r="C14" s="251"/>
-      <c r="D14" s="252"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="254"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="255"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="257"/>
-      <c r="L14" s="257"/>
-      <c r="M14" s="257"/>
-      <c r="N14" s="257"/>
-      <c r="O14" s="257"/>
-      <c r="P14" s="258"/>
-      <c r="Q14" s="259"/>
-      <c r="R14" s="260"/>
-      <c r="S14" s="260"/>
-      <c r="T14" s="260"/>
-      <c r="U14" s="260"/>
-      <c r="V14" s="260"/>
-      <c r="W14" s="260"/>
-      <c r="X14" s="260"/>
-      <c r="Y14" s="260"/>
-      <c r="Z14" s="260"/>
-      <c r="AA14" s="260"/>
-      <c r="AB14" s="260"/>
-      <c r="AC14" s="260"/>
-      <c r="AD14" s="260"/>
-      <c r="AE14" s="261"/>
-      <c r="AF14" s="256"/>
-      <c r="AG14" s="257"/>
-      <c r="AH14" s="257"/>
-      <c r="AI14" s="258"/>
+      <c r="B14" s="286"/>
+      <c r="C14" s="287"/>
+      <c r="D14" s="288"/>
+      <c r="E14" s="289"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="286"/>
+      <c r="H14" s="291"/>
+      <c r="I14" s="287"/>
+      <c r="J14" s="292"/>
+      <c r="K14" s="293"/>
+      <c r="L14" s="293"/>
+      <c r="M14" s="293"/>
+      <c r="N14" s="293"/>
+      <c r="O14" s="293"/>
+      <c r="P14" s="294"/>
+      <c r="Q14" s="295"/>
+      <c r="R14" s="296"/>
+      <c r="S14" s="296"/>
+      <c r="T14" s="296"/>
+      <c r="U14" s="296"/>
+      <c r="V14" s="296"/>
+      <c r="W14" s="296"/>
+      <c r="X14" s="296"/>
+      <c r="Y14" s="296"/>
+      <c r="Z14" s="296"/>
+      <c r="AA14" s="296"/>
+      <c r="AB14" s="296"/>
+      <c r="AC14" s="296"/>
+      <c r="AD14" s="296"/>
+      <c r="AE14" s="297"/>
+      <c r="AF14" s="292"/>
+      <c r="AG14" s="293"/>
+      <c r="AH14" s="293"/>
+      <c r="AI14" s="294"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="250"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="252"/>
-      <c r="E15" s="253"/>
-      <c r="F15" s="254"/>
-      <c r="G15" s="250"/>
-      <c r="H15" s="255"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="257"/>
-      <c r="L15" s="257"/>
-      <c r="M15" s="257"/>
-      <c r="N15" s="257"/>
-      <c r="O15" s="257"/>
-      <c r="P15" s="258"/>
-      <c r="Q15" s="259"/>
-      <c r="R15" s="260"/>
-      <c r="S15" s="260"/>
-      <c r="T15" s="260"/>
-      <c r="U15" s="260"/>
-      <c r="V15" s="260"/>
-      <c r="W15" s="260"/>
-      <c r="X15" s="260"/>
-      <c r="Y15" s="260"/>
-      <c r="Z15" s="260"/>
-      <c r="AA15" s="260"/>
-      <c r="AB15" s="260"/>
-      <c r="AC15" s="260"/>
-      <c r="AD15" s="260"/>
-      <c r="AE15" s="261"/>
-      <c r="AF15" s="256"/>
-      <c r="AG15" s="257"/>
-      <c r="AH15" s="257"/>
-      <c r="AI15" s="258"/>
+      <c r="B15" s="286"/>
+      <c r="C15" s="287"/>
+      <c r="D15" s="288"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="286"/>
+      <c r="H15" s="291"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="292"/>
+      <c r="K15" s="293"/>
+      <c r="L15" s="293"/>
+      <c r="M15" s="293"/>
+      <c r="N15" s="293"/>
+      <c r="O15" s="293"/>
+      <c r="P15" s="294"/>
+      <c r="Q15" s="295"/>
+      <c r="R15" s="296"/>
+      <c r="S15" s="296"/>
+      <c r="T15" s="296"/>
+      <c r="U15" s="296"/>
+      <c r="V15" s="296"/>
+      <c r="W15" s="296"/>
+      <c r="X15" s="296"/>
+      <c r="Y15" s="296"/>
+      <c r="Z15" s="296"/>
+      <c r="AA15" s="296"/>
+      <c r="AB15" s="296"/>
+      <c r="AC15" s="296"/>
+      <c r="AD15" s="296"/>
+      <c r="AE15" s="297"/>
+      <c r="AF15" s="292"/>
+      <c r="AG15" s="293"/>
+      <c r="AH15" s="293"/>
+      <c r="AI15" s="294"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="250"/>
-      <c r="C16" s="251"/>
-      <c r="D16" s="252"/>
-      <c r="E16" s="253"/>
-      <c r="F16" s="254"/>
-      <c r="G16" s="250"/>
-      <c r="H16" s="255"/>
-      <c r="I16" s="251"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="257"/>
-      <c r="M16" s="257"/>
-      <c r="N16" s="257"/>
-      <c r="O16" s="257"/>
-      <c r="P16" s="258"/>
-      <c r="Q16" s="259"/>
-      <c r="R16" s="260"/>
-      <c r="S16" s="260"/>
-      <c r="T16" s="260"/>
-      <c r="U16" s="260"/>
-      <c r="V16" s="260"/>
-      <c r="W16" s="260"/>
-      <c r="X16" s="260"/>
-      <c r="Y16" s="260"/>
-      <c r="Z16" s="260"/>
-      <c r="AA16" s="260"/>
-      <c r="AB16" s="260"/>
-      <c r="AC16" s="260"/>
-      <c r="AD16" s="260"/>
-      <c r="AE16" s="261"/>
-      <c r="AF16" s="256"/>
-      <c r="AG16" s="257"/>
-      <c r="AH16" s="257"/>
-      <c r="AI16" s="258"/>
+      <c r="B16" s="286"/>
+      <c r="C16" s="287"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="289"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="286"/>
+      <c r="H16" s="291"/>
+      <c r="I16" s="287"/>
+      <c r="J16" s="292"/>
+      <c r="K16" s="293"/>
+      <c r="L16" s="293"/>
+      <c r="M16" s="293"/>
+      <c r="N16" s="293"/>
+      <c r="O16" s="293"/>
+      <c r="P16" s="294"/>
+      <c r="Q16" s="295"/>
+      <c r="R16" s="296"/>
+      <c r="S16" s="296"/>
+      <c r="T16" s="296"/>
+      <c r="U16" s="296"/>
+      <c r="V16" s="296"/>
+      <c r="W16" s="296"/>
+      <c r="X16" s="296"/>
+      <c r="Y16" s="296"/>
+      <c r="Z16" s="296"/>
+      <c r="AA16" s="296"/>
+      <c r="AB16" s="296"/>
+      <c r="AC16" s="296"/>
+      <c r="AD16" s="296"/>
+      <c r="AE16" s="297"/>
+      <c r="AF16" s="292"/>
+      <c r="AG16" s="293"/>
+      <c r="AH16" s="293"/>
+      <c r="AI16" s="294"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="250"/>
-      <c r="C17" s="251"/>
-      <c r="D17" s="252"/>
-      <c r="E17" s="253"/>
-      <c r="F17" s="254"/>
-      <c r="G17" s="250"/>
-      <c r="H17" s="255"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="257"/>
-      <c r="L17" s="257"/>
-      <c r="M17" s="257"/>
-      <c r="N17" s="257"/>
-      <c r="O17" s="257"/>
-      <c r="P17" s="258"/>
-      <c r="Q17" s="259"/>
-      <c r="R17" s="260"/>
-      <c r="S17" s="260"/>
-      <c r="T17" s="260"/>
-      <c r="U17" s="260"/>
-      <c r="V17" s="260"/>
-      <c r="W17" s="260"/>
-      <c r="X17" s="260"/>
-      <c r="Y17" s="260"/>
-      <c r="Z17" s="260"/>
-      <c r="AA17" s="260"/>
-      <c r="AB17" s="260"/>
-      <c r="AC17" s="260"/>
-      <c r="AD17" s="260"/>
-      <c r="AE17" s="261"/>
-      <c r="AF17" s="256"/>
-      <c r="AG17" s="257"/>
-      <c r="AH17" s="257"/>
-      <c r="AI17" s="258"/>
+      <c r="B17" s="286"/>
+      <c r="C17" s="287"/>
+      <c r="D17" s="288"/>
+      <c r="E17" s="289"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="286"/>
+      <c r="H17" s="291"/>
+      <c r="I17" s="287"/>
+      <c r="J17" s="292"/>
+      <c r="K17" s="293"/>
+      <c r="L17" s="293"/>
+      <c r="M17" s="293"/>
+      <c r="N17" s="293"/>
+      <c r="O17" s="293"/>
+      <c r="P17" s="294"/>
+      <c r="Q17" s="295"/>
+      <c r="R17" s="296"/>
+      <c r="S17" s="296"/>
+      <c r="T17" s="296"/>
+      <c r="U17" s="296"/>
+      <c r="V17" s="296"/>
+      <c r="W17" s="296"/>
+      <c r="X17" s="296"/>
+      <c r="Y17" s="296"/>
+      <c r="Z17" s="296"/>
+      <c r="AA17" s="296"/>
+      <c r="AB17" s="296"/>
+      <c r="AC17" s="296"/>
+      <c r="AD17" s="296"/>
+      <c r="AE17" s="297"/>
+      <c r="AF17" s="292"/>
+      <c r="AG17" s="293"/>
+      <c r="AH17" s="293"/>
+      <c r="AI17" s="294"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="250"/>
-      <c r="C18" s="251"/>
-      <c r="D18" s="252"/>
-      <c r="E18" s="253"/>
-      <c r="F18" s="254"/>
-      <c r="G18" s="250"/>
-      <c r="H18" s="255"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="256"/>
-      <c r="K18" s="257"/>
-      <c r="L18" s="257"/>
-      <c r="M18" s="257"/>
-      <c r="N18" s="257"/>
-      <c r="O18" s="257"/>
-      <c r="P18" s="258"/>
-      <c r="Q18" s="259"/>
-      <c r="R18" s="260"/>
-      <c r="S18" s="260"/>
-      <c r="T18" s="260"/>
-      <c r="U18" s="260"/>
-      <c r="V18" s="260"/>
-      <c r="W18" s="260"/>
-      <c r="X18" s="260"/>
-      <c r="Y18" s="260"/>
-      <c r="Z18" s="260"/>
-      <c r="AA18" s="260"/>
-      <c r="AB18" s="260"/>
-      <c r="AC18" s="260"/>
-      <c r="AD18" s="260"/>
-      <c r="AE18" s="261"/>
-      <c r="AF18" s="256"/>
-      <c r="AG18" s="257"/>
-      <c r="AH18" s="257"/>
-      <c r="AI18" s="258"/>
+      <c r="B18" s="286"/>
+      <c r="C18" s="287"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="289"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="286"/>
+      <c r="H18" s="291"/>
+      <c r="I18" s="287"/>
+      <c r="J18" s="292"/>
+      <c r="K18" s="293"/>
+      <c r="L18" s="293"/>
+      <c r="M18" s="293"/>
+      <c r="N18" s="293"/>
+      <c r="O18" s="293"/>
+      <c r="P18" s="294"/>
+      <c r="Q18" s="295"/>
+      <c r="R18" s="296"/>
+      <c r="S18" s="296"/>
+      <c r="T18" s="296"/>
+      <c r="U18" s="296"/>
+      <c r="V18" s="296"/>
+      <c r="W18" s="296"/>
+      <c r="X18" s="296"/>
+      <c r="Y18" s="296"/>
+      <c r="Z18" s="296"/>
+      <c r="AA18" s="296"/>
+      <c r="AB18" s="296"/>
+      <c r="AC18" s="296"/>
+      <c r="AD18" s="296"/>
+      <c r="AE18" s="297"/>
+      <c r="AF18" s="292"/>
+      <c r="AG18" s="293"/>
+      <c r="AH18" s="293"/>
+      <c r="AI18" s="294"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="250"/>
-      <c r="C19" s="251"/>
-      <c r="D19" s="252"/>
-      <c r="E19" s="253"/>
-      <c r="F19" s="254"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="255"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="256"/>
-      <c r="K19" s="257"/>
-      <c r="L19" s="257"/>
-      <c r="M19" s="257"/>
-      <c r="N19" s="257"/>
-      <c r="O19" s="257"/>
-      <c r="P19" s="258"/>
-      <c r="Q19" s="259"/>
-      <c r="R19" s="260"/>
-      <c r="S19" s="260"/>
-      <c r="T19" s="260"/>
-      <c r="U19" s="260"/>
-      <c r="V19" s="260"/>
-      <c r="W19" s="260"/>
-      <c r="X19" s="260"/>
-      <c r="Y19" s="260"/>
-      <c r="Z19" s="260"/>
-      <c r="AA19" s="260"/>
-      <c r="AB19" s="260"/>
-      <c r="AC19" s="260"/>
-      <c r="AD19" s="260"/>
-      <c r="AE19" s="261"/>
-      <c r="AF19" s="256"/>
-      <c r="AG19" s="257"/>
-      <c r="AH19" s="257"/>
-      <c r="AI19" s="258"/>
+      <c r="B19" s="286"/>
+      <c r="C19" s="287"/>
+      <c r="D19" s="288"/>
+      <c r="E19" s="289"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="286"/>
+      <c r="H19" s="291"/>
+      <c r="I19" s="287"/>
+      <c r="J19" s="292"/>
+      <c r="K19" s="293"/>
+      <c r="L19" s="293"/>
+      <c r="M19" s="293"/>
+      <c r="N19" s="293"/>
+      <c r="O19" s="293"/>
+      <c r="P19" s="294"/>
+      <c r="Q19" s="295"/>
+      <c r="R19" s="296"/>
+      <c r="S19" s="296"/>
+      <c r="T19" s="296"/>
+      <c r="U19" s="296"/>
+      <c r="V19" s="296"/>
+      <c r="W19" s="296"/>
+      <c r="X19" s="296"/>
+      <c r="Y19" s="296"/>
+      <c r="Z19" s="296"/>
+      <c r="AA19" s="296"/>
+      <c r="AB19" s="296"/>
+      <c r="AC19" s="296"/>
+      <c r="AD19" s="296"/>
+      <c r="AE19" s="297"/>
+      <c r="AF19" s="292"/>
+      <c r="AG19" s="293"/>
+      <c r="AH19" s="293"/>
+      <c r="AI19" s="294"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="22"/>
-      <c r="B20" s="250"/>
-      <c r="C20" s="251"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="253"/>
-      <c r="F20" s="254"/>
-      <c r="G20" s="250"/>
-      <c r="H20" s="255"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="256"/>
-      <c r="K20" s="257"/>
-      <c r="L20" s="257"/>
-      <c r="M20" s="257"/>
-      <c r="N20" s="257"/>
-      <c r="O20" s="257"/>
-      <c r="P20" s="258"/>
-      <c r="Q20" s="259"/>
-      <c r="R20" s="260"/>
-      <c r="S20" s="260"/>
-      <c r="T20" s="260"/>
-      <c r="U20" s="260"/>
-      <c r="V20" s="260"/>
-      <c r="W20" s="260"/>
-      <c r="X20" s="260"/>
-      <c r="Y20" s="260"/>
-      <c r="Z20" s="260"/>
-      <c r="AA20" s="260"/>
-      <c r="AB20" s="260"/>
-      <c r="AC20" s="260"/>
-      <c r="AD20" s="260"/>
-      <c r="AE20" s="261"/>
-      <c r="AF20" s="256"/>
-      <c r="AG20" s="257"/>
-      <c r="AH20" s="257"/>
-      <c r="AI20" s="258"/>
+      <c r="B20" s="286"/>
+      <c r="C20" s="287"/>
+      <c r="D20" s="288"/>
+      <c r="E20" s="289"/>
+      <c r="F20" s="290"/>
+      <c r="G20" s="286"/>
+      <c r="H20" s="291"/>
+      <c r="I20" s="287"/>
+      <c r="J20" s="292"/>
+      <c r="K20" s="293"/>
+      <c r="L20" s="293"/>
+      <c r="M20" s="293"/>
+      <c r="N20" s="293"/>
+      <c r="O20" s="293"/>
+      <c r="P20" s="294"/>
+      <c r="Q20" s="295"/>
+      <c r="R20" s="296"/>
+      <c r="S20" s="296"/>
+      <c r="T20" s="296"/>
+      <c r="U20" s="296"/>
+      <c r="V20" s="296"/>
+      <c r="W20" s="296"/>
+      <c r="X20" s="296"/>
+      <c r="Y20" s="296"/>
+      <c r="Z20" s="296"/>
+      <c r="AA20" s="296"/>
+      <c r="AB20" s="296"/>
+      <c r="AC20" s="296"/>
+      <c r="AD20" s="296"/>
+      <c r="AE20" s="297"/>
+      <c r="AF20" s="292"/>
+      <c r="AG20" s="293"/>
+      <c r="AH20" s="293"/>
+      <c r="AI20" s="294"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="250"/>
-      <c r="C21" s="251"/>
-      <c r="D21" s="252"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="254"/>
-      <c r="G21" s="250"/>
-      <c r="H21" s="255"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="256"/>
-      <c r="K21" s="257"/>
-      <c r="L21" s="257"/>
-      <c r="M21" s="257"/>
-      <c r="N21" s="257"/>
-      <c r="O21" s="257"/>
-      <c r="P21" s="258"/>
-      <c r="Q21" s="259"/>
-      <c r="R21" s="260"/>
-      <c r="S21" s="260"/>
-      <c r="T21" s="260"/>
-      <c r="U21" s="260"/>
-      <c r="V21" s="260"/>
-      <c r="W21" s="260"/>
-      <c r="X21" s="260"/>
-      <c r="Y21" s="260"/>
-      <c r="Z21" s="260"/>
-      <c r="AA21" s="260"/>
-      <c r="AB21" s="260"/>
-      <c r="AC21" s="260"/>
-      <c r="AD21" s="260"/>
-      <c r="AE21" s="261"/>
-      <c r="AF21" s="256"/>
-      <c r="AG21" s="257"/>
-      <c r="AH21" s="257"/>
-      <c r="AI21" s="258"/>
+      <c r="B21" s="286"/>
+      <c r="C21" s="287"/>
+      <c r="D21" s="288"/>
+      <c r="E21" s="289"/>
+      <c r="F21" s="290"/>
+      <c r="G21" s="286"/>
+      <c r="H21" s="291"/>
+      <c r="I21" s="287"/>
+      <c r="J21" s="292"/>
+      <c r="K21" s="293"/>
+      <c r="L21" s="293"/>
+      <c r="M21" s="293"/>
+      <c r="N21" s="293"/>
+      <c r="O21" s="293"/>
+      <c r="P21" s="294"/>
+      <c r="Q21" s="295"/>
+      <c r="R21" s="296"/>
+      <c r="S21" s="296"/>
+      <c r="T21" s="296"/>
+      <c r="U21" s="296"/>
+      <c r="V21" s="296"/>
+      <c r="W21" s="296"/>
+      <c r="X21" s="296"/>
+      <c r="Y21" s="296"/>
+      <c r="Z21" s="296"/>
+      <c r="AA21" s="296"/>
+      <c r="AB21" s="296"/>
+      <c r="AC21" s="296"/>
+      <c r="AD21" s="296"/>
+      <c r="AE21" s="297"/>
+      <c r="AF21" s="292"/>
+      <c r="AG21" s="293"/>
+      <c r="AH21" s="293"/>
+      <c r="AI21" s="294"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="22"/>
-      <c r="B22" s="250"/>
-      <c r="C22" s="251"/>
-      <c r="D22" s="252"/>
-      <c r="E22" s="253"/>
-      <c r="F22" s="254"/>
-      <c r="G22" s="250"/>
-      <c r="H22" s="255"/>
-      <c r="I22" s="251"/>
-      <c r="J22" s="256"/>
-      <c r="K22" s="257"/>
-      <c r="L22" s="257"/>
-      <c r="M22" s="257"/>
-      <c r="N22" s="257"/>
-      <c r="O22" s="257"/>
-      <c r="P22" s="258"/>
-      <c r="Q22" s="259"/>
-      <c r="R22" s="260"/>
-      <c r="S22" s="260"/>
-      <c r="T22" s="260"/>
-      <c r="U22" s="260"/>
-      <c r="V22" s="260"/>
-      <c r="W22" s="260"/>
-      <c r="X22" s="260"/>
-      <c r="Y22" s="260"/>
-      <c r="Z22" s="260"/>
-      <c r="AA22" s="260"/>
-      <c r="AB22" s="260"/>
-      <c r="AC22" s="260"/>
-      <c r="AD22" s="260"/>
-      <c r="AE22" s="261"/>
-      <c r="AF22" s="256"/>
-      <c r="AG22" s="257"/>
-      <c r="AH22" s="257"/>
-      <c r="AI22" s="258"/>
+      <c r="B22" s="286"/>
+      <c r="C22" s="287"/>
+      <c r="D22" s="288"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="286"/>
+      <c r="H22" s="291"/>
+      <c r="I22" s="287"/>
+      <c r="J22" s="292"/>
+      <c r="K22" s="293"/>
+      <c r="L22" s="293"/>
+      <c r="M22" s="293"/>
+      <c r="N22" s="293"/>
+      <c r="O22" s="293"/>
+      <c r="P22" s="294"/>
+      <c r="Q22" s="295"/>
+      <c r="R22" s="296"/>
+      <c r="S22" s="296"/>
+      <c r="T22" s="296"/>
+      <c r="U22" s="296"/>
+      <c r="V22" s="296"/>
+      <c r="W22" s="296"/>
+      <c r="X22" s="296"/>
+      <c r="Y22" s="296"/>
+      <c r="Z22" s="296"/>
+      <c r="AA22" s="296"/>
+      <c r="AB22" s="296"/>
+      <c r="AC22" s="296"/>
+      <c r="AD22" s="296"/>
+      <c r="AE22" s="297"/>
+      <c r="AF22" s="292"/>
+      <c r="AG22" s="293"/>
+      <c r="AH22" s="293"/>
+      <c r="AI22" s="294"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="22"/>
-      <c r="B23" s="250"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="252"/>
-      <c r="E23" s="253"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="250"/>
-      <c r="H23" s="255"/>
-      <c r="I23" s="251"/>
-      <c r="J23" s="256"/>
-      <c r="K23" s="257"/>
-      <c r="L23" s="257"/>
-      <c r="M23" s="257"/>
-      <c r="N23" s="257"/>
-      <c r="O23" s="257"/>
-      <c r="P23" s="258"/>
-      <c r="Q23" s="259"/>
-      <c r="R23" s="260"/>
-      <c r="S23" s="260"/>
-      <c r="T23" s="260"/>
-      <c r="U23" s="260"/>
-      <c r="V23" s="260"/>
-      <c r="W23" s="260"/>
-      <c r="X23" s="260"/>
-      <c r="Y23" s="260"/>
-      <c r="Z23" s="260"/>
-      <c r="AA23" s="260"/>
-      <c r="AB23" s="260"/>
-      <c r="AC23" s="260"/>
-      <c r="AD23" s="260"/>
-      <c r="AE23" s="261"/>
-      <c r="AF23" s="256"/>
-      <c r="AG23" s="257"/>
-      <c r="AH23" s="257"/>
-      <c r="AI23" s="258"/>
+      <c r="B23" s="286"/>
+      <c r="C23" s="287"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="289"/>
+      <c r="F23" s="290"/>
+      <c r="G23" s="286"/>
+      <c r="H23" s="291"/>
+      <c r="I23" s="287"/>
+      <c r="J23" s="292"/>
+      <c r="K23" s="293"/>
+      <c r="L23" s="293"/>
+      <c r="M23" s="293"/>
+      <c r="N23" s="293"/>
+      <c r="O23" s="293"/>
+      <c r="P23" s="294"/>
+      <c r="Q23" s="295"/>
+      <c r="R23" s="296"/>
+      <c r="S23" s="296"/>
+      <c r="T23" s="296"/>
+      <c r="U23" s="296"/>
+      <c r="V23" s="296"/>
+      <c r="W23" s="296"/>
+      <c r="X23" s="296"/>
+      <c r="Y23" s="296"/>
+      <c r="Z23" s="296"/>
+      <c r="AA23" s="296"/>
+      <c r="AB23" s="296"/>
+      <c r="AC23" s="296"/>
+      <c r="AD23" s="296"/>
+      <c r="AE23" s="297"/>
+      <c r="AF23" s="292"/>
+      <c r="AG23" s="293"/>
+      <c r="AH23" s="293"/>
+      <c r="AI23" s="294"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="22"/>
-      <c r="B24" s="250"/>
-      <c r="C24" s="251"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="254"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="255"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="256"/>
-      <c r="K24" s="257"/>
-      <c r="L24" s="257"/>
-      <c r="M24" s="257"/>
-      <c r="N24" s="257"/>
-      <c r="O24" s="257"/>
-      <c r="P24" s="258"/>
-      <c r="Q24" s="259"/>
-      <c r="R24" s="260"/>
-      <c r="S24" s="260"/>
-      <c r="T24" s="260"/>
-      <c r="U24" s="260"/>
-      <c r="V24" s="260"/>
-      <c r="W24" s="260"/>
-      <c r="X24" s="260"/>
-      <c r="Y24" s="260"/>
-      <c r="Z24" s="260"/>
-      <c r="AA24" s="260"/>
-      <c r="AB24" s="260"/>
-      <c r="AC24" s="260"/>
-      <c r="AD24" s="260"/>
-      <c r="AE24" s="261"/>
-      <c r="AF24" s="256"/>
-      <c r="AG24" s="257"/>
-      <c r="AH24" s="257"/>
-      <c r="AI24" s="258"/>
+      <c r="B24" s="286"/>
+      <c r="C24" s="287"/>
+      <c r="D24" s="288"/>
+      <c r="E24" s="289"/>
+      <c r="F24" s="290"/>
+      <c r="G24" s="286"/>
+      <c r="H24" s="291"/>
+      <c r="I24" s="287"/>
+      <c r="J24" s="292"/>
+      <c r="K24" s="293"/>
+      <c r="L24" s="293"/>
+      <c r="M24" s="293"/>
+      <c r="N24" s="293"/>
+      <c r="O24" s="293"/>
+      <c r="P24" s="294"/>
+      <c r="Q24" s="295"/>
+      <c r="R24" s="296"/>
+      <c r="S24" s="296"/>
+      <c r="T24" s="296"/>
+      <c r="U24" s="296"/>
+      <c r="V24" s="296"/>
+      <c r="W24" s="296"/>
+      <c r="X24" s="296"/>
+      <c r="Y24" s="296"/>
+      <c r="Z24" s="296"/>
+      <c r="AA24" s="296"/>
+      <c r="AB24" s="296"/>
+      <c r="AC24" s="296"/>
+      <c r="AD24" s="296"/>
+      <c r="AE24" s="297"/>
+      <c r="AF24" s="292"/>
+      <c r="AG24" s="293"/>
+      <c r="AH24" s="293"/>
+      <c r="AI24" s="294"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="22"/>
-      <c r="B25" s="250"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="254"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="255"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="256"/>
-      <c r="K25" s="257"/>
-      <c r="L25" s="257"/>
-      <c r="M25" s="257"/>
-      <c r="N25" s="257"/>
-      <c r="O25" s="257"/>
-      <c r="P25" s="258"/>
-      <c r="Q25" s="259"/>
-      <c r="R25" s="260"/>
-      <c r="S25" s="260"/>
-      <c r="T25" s="260"/>
-      <c r="U25" s="260"/>
-      <c r="V25" s="260"/>
-      <c r="W25" s="260"/>
-      <c r="X25" s="260"/>
-      <c r="Y25" s="260"/>
-      <c r="Z25" s="260"/>
-      <c r="AA25" s="260"/>
-      <c r="AB25" s="260"/>
-      <c r="AC25" s="260"/>
-      <c r="AD25" s="260"/>
-      <c r="AE25" s="261"/>
-      <c r="AF25" s="256"/>
-      <c r="AG25" s="257"/>
-      <c r="AH25" s="257"/>
-      <c r="AI25" s="258"/>
+      <c r="B25" s="286"/>
+      <c r="C25" s="287"/>
+      <c r="D25" s="288"/>
+      <c r="E25" s="289"/>
+      <c r="F25" s="290"/>
+      <c r="G25" s="286"/>
+      <c r="H25" s="291"/>
+      <c r="I25" s="287"/>
+      <c r="J25" s="292"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="293"/>
+      <c r="M25" s="293"/>
+      <c r="N25" s="293"/>
+      <c r="O25" s="293"/>
+      <c r="P25" s="294"/>
+      <c r="Q25" s="295"/>
+      <c r="R25" s="296"/>
+      <c r="S25" s="296"/>
+      <c r="T25" s="296"/>
+      <c r="U25" s="296"/>
+      <c r="V25" s="296"/>
+      <c r="W25" s="296"/>
+      <c r="X25" s="296"/>
+      <c r="Y25" s="296"/>
+      <c r="Z25" s="296"/>
+      <c r="AA25" s="296"/>
+      <c r="AB25" s="296"/>
+      <c r="AC25" s="296"/>
+      <c r="AD25" s="296"/>
+      <c r="AE25" s="297"/>
+      <c r="AF25" s="292"/>
+      <c r="AG25" s="293"/>
+      <c r="AH25" s="293"/>
+      <c r="AI25" s="294"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="22"/>
-      <c r="B26" s="250"/>
-      <c r="C26" s="251"/>
-      <c r="D26" s="252"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="254"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="255"/>
-      <c r="I26" s="251"/>
-      <c r="J26" s="256"/>
-      <c r="K26" s="257"/>
-      <c r="L26" s="257"/>
-      <c r="M26" s="257"/>
-      <c r="N26" s="257"/>
-      <c r="O26" s="257"/>
-      <c r="P26" s="258"/>
-      <c r="Q26" s="259"/>
-      <c r="R26" s="260"/>
-      <c r="S26" s="260"/>
-      <c r="T26" s="260"/>
-      <c r="U26" s="260"/>
-      <c r="V26" s="260"/>
-      <c r="W26" s="260"/>
-      <c r="X26" s="260"/>
-      <c r="Y26" s="260"/>
-      <c r="Z26" s="260"/>
-      <c r="AA26" s="260"/>
-      <c r="AB26" s="260"/>
-      <c r="AC26" s="260"/>
-      <c r="AD26" s="260"/>
-      <c r="AE26" s="261"/>
-      <c r="AF26" s="256"/>
-      <c r="AG26" s="257"/>
-      <c r="AH26" s="257"/>
-      <c r="AI26" s="258"/>
+      <c r="B26" s="286"/>
+      <c r="C26" s="287"/>
+      <c r="D26" s="288"/>
+      <c r="E26" s="289"/>
+      <c r="F26" s="290"/>
+      <c r="G26" s="286"/>
+      <c r="H26" s="291"/>
+      <c r="I26" s="287"/>
+      <c r="J26" s="292"/>
+      <c r="K26" s="293"/>
+      <c r="L26" s="293"/>
+      <c r="M26" s="293"/>
+      <c r="N26" s="293"/>
+      <c r="O26" s="293"/>
+      <c r="P26" s="294"/>
+      <c r="Q26" s="295"/>
+      <c r="R26" s="296"/>
+      <c r="S26" s="296"/>
+      <c r="T26" s="296"/>
+      <c r="U26" s="296"/>
+      <c r="V26" s="296"/>
+      <c r="W26" s="296"/>
+      <c r="X26" s="296"/>
+      <c r="Y26" s="296"/>
+      <c r="Z26" s="296"/>
+      <c r="AA26" s="296"/>
+      <c r="AB26" s="296"/>
+      <c r="AC26" s="296"/>
+      <c r="AD26" s="296"/>
+      <c r="AE26" s="297"/>
+      <c r="AF26" s="292"/>
+      <c r="AG26" s="293"/>
+      <c r="AH26" s="293"/>
+      <c r="AI26" s="294"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="22"/>
-      <c r="B27" s="250"/>
-      <c r="C27" s="251"/>
-      <c r="D27" s="252"/>
-      <c r="E27" s="253"/>
-      <c r="F27" s="254"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="255"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="256"/>
-      <c r="K27" s="257"/>
-      <c r="L27" s="257"/>
-      <c r="M27" s="257"/>
-      <c r="N27" s="257"/>
-      <c r="O27" s="257"/>
-      <c r="P27" s="258"/>
-      <c r="Q27" s="259"/>
-      <c r="R27" s="260"/>
-      <c r="S27" s="260"/>
-      <c r="T27" s="260"/>
-      <c r="U27" s="260"/>
-      <c r="V27" s="260"/>
-      <c r="W27" s="260"/>
-      <c r="X27" s="260"/>
-      <c r="Y27" s="260"/>
-      <c r="Z27" s="260"/>
-      <c r="AA27" s="260"/>
-      <c r="AB27" s="260"/>
-      <c r="AC27" s="260"/>
-      <c r="AD27" s="260"/>
-      <c r="AE27" s="261"/>
-      <c r="AF27" s="256"/>
-      <c r="AG27" s="257"/>
-      <c r="AH27" s="257"/>
-      <c r="AI27" s="258"/>
+      <c r="B27" s="286"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="290"/>
+      <c r="G27" s="286"/>
+      <c r="H27" s="291"/>
+      <c r="I27" s="287"/>
+      <c r="J27" s="292"/>
+      <c r="K27" s="293"/>
+      <c r="L27" s="293"/>
+      <c r="M27" s="293"/>
+      <c r="N27" s="293"/>
+      <c r="O27" s="293"/>
+      <c r="P27" s="294"/>
+      <c r="Q27" s="295"/>
+      <c r="R27" s="296"/>
+      <c r="S27" s="296"/>
+      <c r="T27" s="296"/>
+      <c r="U27" s="296"/>
+      <c r="V27" s="296"/>
+      <c r="W27" s="296"/>
+      <c r="X27" s="296"/>
+      <c r="Y27" s="296"/>
+      <c r="Z27" s="296"/>
+      <c r="AA27" s="296"/>
+      <c r="AB27" s="296"/>
+      <c r="AC27" s="296"/>
+      <c r="AD27" s="296"/>
+      <c r="AE27" s="297"/>
+      <c r="AF27" s="292"/>
+      <c r="AG27" s="293"/>
+      <c r="AH27" s="293"/>
+      <c r="AI27" s="294"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="22"/>
-      <c r="B28" s="250"/>
-      <c r="C28" s="251"/>
-      <c r="D28" s="252"/>
-      <c r="E28" s="253"/>
-      <c r="F28" s="254"/>
-      <c r="G28" s="250"/>
-      <c r="H28" s="255"/>
-      <c r="I28" s="251"/>
-      <c r="J28" s="256"/>
-      <c r="K28" s="257"/>
-      <c r="L28" s="257"/>
-      <c r="M28" s="257"/>
-      <c r="N28" s="257"/>
-      <c r="O28" s="257"/>
-      <c r="P28" s="258"/>
-      <c r="Q28" s="259"/>
-      <c r="R28" s="260"/>
-      <c r="S28" s="260"/>
-      <c r="T28" s="260"/>
-      <c r="U28" s="260"/>
-      <c r="V28" s="260"/>
-      <c r="W28" s="260"/>
-      <c r="X28" s="260"/>
-      <c r="Y28" s="260"/>
-      <c r="Z28" s="260"/>
-      <c r="AA28" s="260"/>
-      <c r="AB28" s="260"/>
-      <c r="AC28" s="260"/>
-      <c r="AD28" s="260"/>
-      <c r="AE28" s="261"/>
-      <c r="AF28" s="256"/>
-      <c r="AG28" s="257"/>
-      <c r="AH28" s="257"/>
-      <c r="AI28" s="258"/>
+      <c r="B28" s="286"/>
+      <c r="C28" s="287"/>
+      <c r="D28" s="288"/>
+      <c r="E28" s="289"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="286"/>
+      <c r="H28" s="291"/>
+      <c r="I28" s="287"/>
+      <c r="J28" s="292"/>
+      <c r="K28" s="293"/>
+      <c r="L28" s="293"/>
+      <c r="M28" s="293"/>
+      <c r="N28" s="293"/>
+      <c r="O28" s="293"/>
+      <c r="P28" s="294"/>
+      <c r="Q28" s="295"/>
+      <c r="R28" s="296"/>
+      <c r="S28" s="296"/>
+      <c r="T28" s="296"/>
+      <c r="U28" s="296"/>
+      <c r="V28" s="296"/>
+      <c r="W28" s="296"/>
+      <c r="X28" s="296"/>
+      <c r="Y28" s="296"/>
+      <c r="Z28" s="296"/>
+      <c r="AA28" s="296"/>
+      <c r="AB28" s="296"/>
+      <c r="AC28" s="296"/>
+      <c r="AD28" s="296"/>
+      <c r="AE28" s="297"/>
+      <c r="AF28" s="292"/>
+      <c r="AG28" s="293"/>
+      <c r="AH28" s="293"/>
+      <c r="AI28" s="294"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="250"/>
-      <c r="C29" s="251"/>
-      <c r="D29" s="252"/>
-      <c r="E29" s="253"/>
-      <c r="F29" s="254"/>
-      <c r="G29" s="250"/>
-      <c r="H29" s="255"/>
-      <c r="I29" s="251"/>
-      <c r="J29" s="256"/>
-      <c r="K29" s="257"/>
-      <c r="L29" s="257"/>
-      <c r="M29" s="257"/>
-      <c r="N29" s="257"/>
-      <c r="O29" s="257"/>
-      <c r="P29" s="258"/>
-      <c r="Q29" s="259"/>
-      <c r="R29" s="260"/>
-      <c r="S29" s="260"/>
-      <c r="T29" s="260"/>
-      <c r="U29" s="260"/>
-      <c r="V29" s="260"/>
-      <c r="W29" s="260"/>
-      <c r="X29" s="260"/>
-      <c r="Y29" s="260"/>
-      <c r="Z29" s="260"/>
-      <c r="AA29" s="260"/>
-      <c r="AB29" s="260"/>
-      <c r="AC29" s="260"/>
-      <c r="AD29" s="260"/>
-      <c r="AE29" s="261"/>
-      <c r="AF29" s="256"/>
-      <c r="AG29" s="257"/>
-      <c r="AH29" s="257"/>
-      <c r="AI29" s="258"/>
+      <c r="B29" s="286"/>
+      <c r="C29" s="287"/>
+      <c r="D29" s="288"/>
+      <c r="E29" s="289"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="286"/>
+      <c r="H29" s="291"/>
+      <c r="I29" s="287"/>
+      <c r="J29" s="292"/>
+      <c r="K29" s="293"/>
+      <c r="L29" s="293"/>
+      <c r="M29" s="293"/>
+      <c r="N29" s="293"/>
+      <c r="O29" s="293"/>
+      <c r="P29" s="294"/>
+      <c r="Q29" s="295"/>
+      <c r="R29" s="296"/>
+      <c r="S29" s="296"/>
+      <c r="T29" s="296"/>
+      <c r="U29" s="296"/>
+      <c r="V29" s="296"/>
+      <c r="W29" s="296"/>
+      <c r="X29" s="296"/>
+      <c r="Y29" s="296"/>
+      <c r="Z29" s="296"/>
+      <c r="AA29" s="296"/>
+      <c r="AB29" s="296"/>
+      <c r="AC29" s="296"/>
+      <c r="AD29" s="296"/>
+      <c r="AE29" s="297"/>
+      <c r="AF29" s="292"/>
+      <c r="AG29" s="293"/>
+      <c r="AH29" s="293"/>
+      <c r="AI29" s="294"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="22"/>
-      <c r="B30" s="250"/>
-      <c r="C30" s="251"/>
-      <c r="D30" s="252"/>
-      <c r="E30" s="253"/>
-      <c r="F30" s="254"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="255"/>
-      <c r="I30" s="251"/>
-      <c r="J30" s="256"/>
-      <c r="K30" s="257"/>
-      <c r="L30" s="257"/>
-      <c r="M30" s="257"/>
-      <c r="N30" s="257"/>
-      <c r="O30" s="257"/>
-      <c r="P30" s="258"/>
-      <c r="Q30" s="259"/>
-      <c r="R30" s="260"/>
-      <c r="S30" s="260"/>
-      <c r="T30" s="260"/>
-      <c r="U30" s="260"/>
-      <c r="V30" s="260"/>
-      <c r="W30" s="260"/>
-      <c r="X30" s="260"/>
-      <c r="Y30" s="260"/>
-      <c r="Z30" s="260"/>
-      <c r="AA30" s="260"/>
-      <c r="AB30" s="260"/>
-      <c r="AC30" s="260"/>
-      <c r="AD30" s="260"/>
-      <c r="AE30" s="261"/>
-      <c r="AF30" s="256"/>
-      <c r="AG30" s="257"/>
-      <c r="AH30" s="257"/>
-      <c r="AI30" s="258"/>
+      <c r="B30" s="286"/>
+      <c r="C30" s="287"/>
+      <c r="D30" s="288"/>
+      <c r="E30" s="289"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="286"/>
+      <c r="H30" s="291"/>
+      <c r="I30" s="287"/>
+      <c r="J30" s="292"/>
+      <c r="K30" s="293"/>
+      <c r="L30" s="293"/>
+      <c r="M30" s="293"/>
+      <c r="N30" s="293"/>
+      <c r="O30" s="293"/>
+      <c r="P30" s="294"/>
+      <c r="Q30" s="295"/>
+      <c r="R30" s="296"/>
+      <c r="S30" s="296"/>
+      <c r="T30" s="296"/>
+      <c r="U30" s="296"/>
+      <c r="V30" s="296"/>
+      <c r="W30" s="296"/>
+      <c r="X30" s="296"/>
+      <c r="Y30" s="296"/>
+      <c r="Z30" s="296"/>
+      <c r="AA30" s="296"/>
+      <c r="AB30" s="296"/>
+      <c r="AC30" s="296"/>
+      <c r="AD30" s="296"/>
+      <c r="AE30" s="297"/>
+      <c r="AF30" s="292"/>
+      <c r="AG30" s="293"/>
+      <c r="AH30" s="293"/>
+      <c r="AI30" s="294"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="22"/>
-      <c r="B31" s="250"/>
-      <c r="C31" s="251"/>
-      <c r="D31" s="252"/>
-      <c r="E31" s="253"/>
-      <c r="F31" s="254"/>
-      <c r="G31" s="250"/>
-      <c r="H31" s="255"/>
-      <c r="I31" s="251"/>
-      <c r="J31" s="256"/>
-      <c r="K31" s="257"/>
-      <c r="L31" s="257"/>
-      <c r="M31" s="257"/>
-      <c r="N31" s="257"/>
-      <c r="O31" s="257"/>
-      <c r="P31" s="258"/>
-      <c r="Q31" s="259"/>
-      <c r="R31" s="260"/>
-      <c r="S31" s="260"/>
-      <c r="T31" s="260"/>
-      <c r="U31" s="260"/>
-      <c r="V31" s="260"/>
-      <c r="W31" s="260"/>
-      <c r="X31" s="260"/>
-      <c r="Y31" s="260"/>
-      <c r="Z31" s="260"/>
-      <c r="AA31" s="260"/>
-      <c r="AB31" s="260"/>
-      <c r="AC31" s="260"/>
-      <c r="AD31" s="260"/>
-      <c r="AE31" s="261"/>
-      <c r="AF31" s="256"/>
-      <c r="AG31" s="257"/>
-      <c r="AH31" s="257"/>
-      <c r="AI31" s="258"/>
+      <c r="B31" s="286"/>
+      <c r="C31" s="287"/>
+      <c r="D31" s="288"/>
+      <c r="E31" s="289"/>
+      <c r="F31" s="290"/>
+      <c r="G31" s="286"/>
+      <c r="H31" s="291"/>
+      <c r="I31" s="287"/>
+      <c r="J31" s="292"/>
+      <c r="K31" s="293"/>
+      <c r="L31" s="293"/>
+      <c r="M31" s="293"/>
+      <c r="N31" s="293"/>
+      <c r="O31" s="293"/>
+      <c r="P31" s="294"/>
+      <c r="Q31" s="295"/>
+      <c r="R31" s="296"/>
+      <c r="S31" s="296"/>
+      <c r="T31" s="296"/>
+      <c r="U31" s="296"/>
+      <c r="V31" s="296"/>
+      <c r="W31" s="296"/>
+      <c r="X31" s="296"/>
+      <c r="Y31" s="296"/>
+      <c r="Z31" s="296"/>
+      <c r="AA31" s="296"/>
+      <c r="AB31" s="296"/>
+      <c r="AC31" s="296"/>
+      <c r="AD31" s="296"/>
+      <c r="AE31" s="297"/>
+      <c r="AF31" s="292"/>
+      <c r="AG31" s="293"/>
+      <c r="AH31" s="293"/>
+      <c r="AI31" s="294"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="22"/>
-      <c r="B32" s="250"/>
-      <c r="C32" s="251"/>
-      <c r="D32" s="252"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="255"/>
-      <c r="I32" s="251"/>
-      <c r="J32" s="256"/>
-      <c r="K32" s="262"/>
-      <c r="L32" s="257"/>
-      <c r="M32" s="257"/>
-      <c r="N32" s="257"/>
-      <c r="O32" s="257"/>
-      <c r="P32" s="258"/>
-      <c r="Q32" s="259"/>
-      <c r="R32" s="260"/>
-      <c r="S32" s="260"/>
-      <c r="T32" s="260"/>
-      <c r="U32" s="260"/>
-      <c r="V32" s="260"/>
-      <c r="W32" s="260"/>
-      <c r="X32" s="260"/>
-      <c r="Y32" s="260"/>
-      <c r="Z32" s="260"/>
-      <c r="AA32" s="260"/>
-      <c r="AB32" s="260"/>
-      <c r="AC32" s="260"/>
-      <c r="AD32" s="260"/>
-      <c r="AE32" s="261"/>
-      <c r="AF32" s="256"/>
-      <c r="AG32" s="257"/>
-      <c r="AH32" s="257"/>
-      <c r="AI32" s="258"/>
+      <c r="B32" s="286"/>
+      <c r="C32" s="287"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="289"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="286"/>
+      <c r="H32" s="291"/>
+      <c r="I32" s="287"/>
+      <c r="J32" s="292"/>
+      <c r="K32" s="311"/>
+      <c r="L32" s="293"/>
+      <c r="M32" s="293"/>
+      <c r="N32" s="293"/>
+      <c r="O32" s="293"/>
+      <c r="P32" s="294"/>
+      <c r="Q32" s="295"/>
+      <c r="R32" s="296"/>
+      <c r="S32" s="296"/>
+      <c r="T32" s="296"/>
+      <c r="U32" s="296"/>
+      <c r="V32" s="296"/>
+      <c r="W32" s="296"/>
+      <c r="X32" s="296"/>
+      <c r="Y32" s="296"/>
+      <c r="Z32" s="296"/>
+      <c r="AA32" s="296"/>
+      <c r="AB32" s="296"/>
+      <c r="AC32" s="296"/>
+      <c r="AD32" s="296"/>
+      <c r="AE32" s="297"/>
+      <c r="AF32" s="292"/>
+      <c r="AG32" s="293"/>
+      <c r="AH32" s="293"/>
+      <c r="AI32" s="294"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="22"/>
-      <c r="B33" s="250"/>
-      <c r="C33" s="251"/>
-      <c r="D33" s="252"/>
-      <c r="E33" s="253"/>
-      <c r="F33" s="254"/>
-      <c r="G33" s="250"/>
-      <c r="H33" s="255"/>
-      <c r="I33" s="251"/>
-      <c r="J33" s="256"/>
-      <c r="K33" s="257"/>
-      <c r="L33" s="257"/>
-      <c r="M33" s="257"/>
-      <c r="N33" s="257"/>
-      <c r="O33" s="257"/>
-      <c r="P33" s="258"/>
-      <c r="Q33" s="259"/>
-      <c r="R33" s="260"/>
-      <c r="S33" s="260"/>
-      <c r="T33" s="260"/>
-      <c r="U33" s="260"/>
-      <c r="V33" s="260"/>
-      <c r="W33" s="260"/>
-      <c r="X33" s="260"/>
-      <c r="Y33" s="260"/>
-      <c r="Z33" s="260"/>
-      <c r="AA33" s="260"/>
-      <c r="AB33" s="260"/>
-      <c r="AC33" s="260"/>
-      <c r="AD33" s="260"/>
-      <c r="AE33" s="261"/>
-      <c r="AF33" s="256"/>
-      <c r="AG33" s="257"/>
-      <c r="AH33" s="257"/>
-      <c r="AI33" s="258"/>
+      <c r="B33" s="286"/>
+      <c r="C33" s="287"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="289"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="286"/>
+      <c r="H33" s="291"/>
+      <c r="I33" s="287"/>
+      <c r="J33" s="292"/>
+      <c r="K33" s="293"/>
+      <c r="L33" s="293"/>
+      <c r="M33" s="293"/>
+      <c r="N33" s="293"/>
+      <c r="O33" s="293"/>
+      <c r="P33" s="294"/>
+      <c r="Q33" s="295"/>
+      <c r="R33" s="296"/>
+      <c r="S33" s="296"/>
+      <c r="T33" s="296"/>
+      <c r="U33" s="296"/>
+      <c r="V33" s="296"/>
+      <c r="W33" s="296"/>
+      <c r="X33" s="296"/>
+      <c r="Y33" s="296"/>
+      <c r="Z33" s="296"/>
+      <c r="AA33" s="296"/>
+      <c r="AB33" s="296"/>
+      <c r="AC33" s="296"/>
+      <c r="AD33" s="296"/>
+      <c r="AE33" s="297"/>
+      <c r="AF33" s="292"/>
+      <c r="AG33" s="293"/>
+      <c r="AH33" s="293"/>
+      <c r="AI33" s="294"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -8073,162 +8237,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8266,7 +8274,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -8276,20 +8284,20 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>0</v>
@@ -8297,10 +8305,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>1</v>
@@ -8348,10 +8356,10 @@
         <v>89</v>
       </c>
       <c r="F10" s="108" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G10" s="114" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H10" s="106" t="s">
         <v>11</v>
@@ -8366,7 +8374,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>4</v>
@@ -8405,20 +8413,20 @@
         <v>82</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K11" s="42" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N11" s="231">
         <v>43737</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P11" s="33"/>
       <c r="Q11" s="44"/>
@@ -8462,7 +8470,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="233" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F13" s="111"/>
       <c r="G13" s="115"/>
@@ -8470,36 +8478,36 @@
         <v>21</v>
       </c>
       <c r="I13" s="235" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J13" s="127" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K13" s="235" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L13" s="236"/>
       <c r="M13" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N13" s="231">
         <v>43737</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P13" s="237"/>
       <c r="Q13" s="238"/>
     </row>
     <row r="14" spans="1:17" s="31" customFormat="1" ht="112.5">
       <c r="A14" s="39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B14" s="46"/>
       <c r="C14" s="36"/>
       <c r="D14" s="49"/>
       <c r="E14" s="116" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F14" s="111"/>
       <c r="G14" s="115"/>
@@ -8510,20 +8518,20 @@
         <v>22</v>
       </c>
       <c r="J14" s="127" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K14" s="239" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L14" s="240"/>
       <c r="M14" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N14" s="231">
         <v>43737</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P14" s="241"/>
       <c r="Q14" s="238"/>
@@ -8544,7 +8552,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="158" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J15" s="158"/>
       <c r="K15" s="158"/>
@@ -8571,23 +8579,23 @@
         <v>21</v>
       </c>
       <c r="I16" s="243" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J16" s="127" t="s">
+        <v>386</v>
+      </c>
+      <c r="K16" s="127" t="s">
         <v>385</v>
-      </c>
-      <c r="K16" s="127" t="s">
-        <v>384</v>
       </c>
       <c r="L16" s="244"/>
       <c r="M16" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N16" s="231">
         <v>43737</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P16" s="245"/>
       <c r="Q16" s="238"/>
@@ -8659,10 +8667,10 @@
         <v>167</v>
       </c>
       <c r="F19" s="109" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="110" t="s">
         <v>301</v>
-      </c>
-      <c r="G19" s="110" t="s">
-        <v>300</v>
       </c>
       <c r="H19" s="52" t="s">
         <v>164</v>
@@ -8690,10 +8698,10 @@
         <v>163</v>
       </c>
       <c r="F20" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G20" s="110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H20" s="52" t="s">
         <v>164</v>
@@ -8721,10 +8729,10 @@
         <v>165</v>
       </c>
       <c r="F21" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G21" s="110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H21" s="52" t="s">
         <v>164</v>
@@ -8752,10 +8760,10 @@
         <v>166</v>
       </c>
       <c r="F22" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G22" s="110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H22" s="52" t="s">
         <v>164</v>
@@ -9029,7 +9037,7 @@
       <c r="C32" s="36"/>
       <c r="D32" s="182"/>
       <c r="E32" s="179" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F32" s="152"/>
       <c r="G32" s="153"/>
@@ -9247,7 +9255,7 @@
         <v>117</v>
       </c>
       <c r="E40" s="179" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F40" s="152"/>
       <c r="G40" s="153"/>
@@ -9621,7 +9629,7 @@
     </row>
     <row r="54" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A54" s="59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B54" s="49" t="s">
         <v>40</v>
@@ -9644,27 +9652,27 @@
         <v>43</v>
       </c>
       <c r="J54" s="69" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K54" s="69" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L54" s="76"/>
       <c r="M54" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N54" s="231">
         <v>43737</v>
       </c>
       <c r="O54" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P54" s="34"/>
       <c r="Q54" s="44"/>
     </row>
     <row r="55" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A55" s="59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B55" s="49"/>
       <c r="C55" s="49"/>
@@ -9678,30 +9686,30 @@
         <v>42</v>
       </c>
       <c r="I55" s="60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J55" s="54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K55" s="54" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L55" s="35"/>
       <c r="M55" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N55" s="231">
         <v>43737</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P55" s="34"/>
       <c r="Q55" s="44"/>
     </row>
     <row r="56" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A56" s="59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
@@ -9715,30 +9723,30 @@
         <v>42</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J56" s="54" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L56" s="35"/>
       <c r="M56" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N56" s="231">
         <v>43737</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P56" s="34"/>
       <c r="Q56" s="44"/>
     </row>
     <row r="57" spans="1:17" s="62" customFormat="1" ht="33.75">
       <c r="A57" s="59" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B57" s="49"/>
       <c r="C57" s="49"/>
@@ -9755,27 +9763,27 @@
         <v>43</v>
       </c>
       <c r="J57" s="54" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L57" s="35"/>
       <c r="M57" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N57" s="231">
         <v>43737</v>
       </c>
       <c r="O57" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P57" s="34"/>
       <c r="Q57" s="61"/>
     </row>
     <row r="58" spans="1:17" s="62" customFormat="1" ht="22.5">
       <c r="A58" s="59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B58" s="49"/>
       <c r="C58" s="49"/>
@@ -9789,30 +9797,30 @@
         <v>42</v>
       </c>
       <c r="I58" s="60" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J58" s="54" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K58" s="54" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L58" s="35"/>
       <c r="M58" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N58" s="231">
         <v>43737</v>
       </c>
       <c r="O58" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P58" s="34"/>
       <c r="Q58" s="61"/>
     </row>
     <row r="59" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A59" s="59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B59" s="49"/>
       <c r="C59" s="49"/>
@@ -9828,7 +9836,7 @@
         <v>42</v>
       </c>
       <c r="I59" s="201" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J59" s="172"/>
       <c r="K59" s="172"/>
@@ -9841,7 +9849,7 @@
     </row>
     <row r="60" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A60" s="59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B60" s="49"/>
       <c r="C60" s="49"/>
@@ -9855,7 +9863,7 @@
         <v>42</v>
       </c>
       <c r="I60" s="201" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J60" s="172"/>
       <c r="K60" s="172"/>
@@ -9868,7 +9876,7 @@
     </row>
     <row r="61" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
@@ -9885,27 +9893,27 @@
         <v>43</v>
       </c>
       <c r="J61" s="54" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K61" s="54" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L61" s="35"/>
       <c r="M61" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N61" s="231">
         <v>43737</v>
       </c>
       <c r="O61" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P61" s="34"/>
       <c r="Q61" s="44"/>
     </row>
     <row r="62" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A62" s="59" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B62" s="49"/>
       <c r="C62" s="49"/>
@@ -9924,27 +9932,27 @@
         <v>43</v>
       </c>
       <c r="J62" s="54" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K62" s="54" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L62" s="35"/>
       <c r="M62" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N62" s="231">
         <v>43737</v>
       </c>
       <c r="O62" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P62" s="34"/>
       <c r="Q62" s="61"/>
     </row>
     <row r="63" spans="1:17" s="31" customFormat="1" ht="22.5">
       <c r="A63" s="59" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B63" s="49"/>
       <c r="C63" s="49"/>
@@ -9961,27 +9969,27 @@
         <v>43</v>
       </c>
       <c r="J63" s="54" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K63" s="54" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L63" s="35"/>
       <c r="M63" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N63" s="231">
         <v>43737</v>
       </c>
       <c r="O63" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P63" s="34"/>
       <c r="Q63" s="61"/>
     </row>
     <row r="64" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A64" s="59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B64" s="49"/>
       <c r="C64" s="49"/>
@@ -10010,7 +10018,7 @@
     </row>
     <row r="65" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="59" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B65" s="49"/>
       <c r="C65" s="49"/>
@@ -10037,7 +10045,7 @@
     </row>
     <row r="66" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A66" s="59" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B66" s="49"/>
       <c r="C66" s="49"/>
@@ -10064,7 +10072,7 @@
     </row>
     <row r="67" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A67" s="59" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B67" s="49"/>
       <c r="C67" s="49"/>
@@ -10073,10 +10081,10 @@
         <v>226</v>
       </c>
       <c r="F67" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G67" s="110" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H67" s="104" t="s">
         <v>131</v>
@@ -10095,7 +10103,7 @@
     </row>
     <row r="68" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A68" s="59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B68" s="49"/>
       <c r="C68" s="49"/>
@@ -10122,7 +10130,7 @@
     </row>
     <row r="69" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A69" s="59" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B69" s="49"/>
       <c r="C69" s="49"/>
@@ -10149,7 +10157,7 @@
     </row>
     <row r="70" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A70" s="59" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B70" s="49"/>
       <c r="C70" s="49"/>
@@ -10176,13 +10184,13 @@
     </row>
     <row r="71" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A71" s="59" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B71" s="49"/>
       <c r="C71" s="49"/>
       <c r="D71" s="176"/>
       <c r="E71" s="172" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F71" s="152"/>
       <c r="G71" s="153"/>
@@ -10203,7 +10211,7 @@
     </row>
     <row r="72" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A72" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B72" s="49"/>
       <c r="C72" s="49"/>
@@ -10232,7 +10240,7 @@
     </row>
     <row r="73" spans="1:17" s="31" customFormat="1" ht="88.5" customHeight="1">
       <c r="A73" s="59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B73" s="49"/>
       <c r="C73" s="49"/>
@@ -10251,27 +10259,27 @@
         <v>60</v>
       </c>
       <c r="J73" s="246" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K73" s="127" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L73" s="35"/>
       <c r="M73" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N73" s="231">
         <v>43737</v>
       </c>
       <c r="O73" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P73" s="34"/>
       <c r="Q73" s="44"/>
     </row>
     <row r="74" spans="1:17" s="31" customFormat="1" ht="127.5" customHeight="1">
       <c r="A74" s="59" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B74" s="49"/>
       <c r="C74" s="49"/>
@@ -10288,27 +10296,27 @@
         <v>60</v>
       </c>
       <c r="J74" s="127" t="s">
+        <v>391</v>
+      </c>
+      <c r="K74" s="127" t="s">
         <v>390</v>
-      </c>
-      <c r="K74" s="127" t="s">
-        <v>389</v>
       </c>
       <c r="L74" s="35"/>
       <c r="M74" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N74" s="231">
         <v>43737</v>
       </c>
       <c r="O74" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P74" s="34"/>
       <c r="Q74" s="44"/>
     </row>
     <row r="75" spans="1:17" s="31" customFormat="1">
       <c r="A75" s="59" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B75" s="49"/>
       <c r="C75" s="49"/>
@@ -10335,7 +10343,7 @@
     </row>
     <row r="76" spans="1:17" s="31" customFormat="1" ht="113.25" customHeight="1">
       <c r="A76" s="59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B76" s="49"/>
       <c r="C76" s="49"/>
@@ -10354,27 +10362,27 @@
         <v>60</v>
       </c>
       <c r="J76" s="246" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K76" s="127" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L76" s="35"/>
       <c r="M76" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N76" s="231">
         <v>43737</v>
       </c>
       <c r="O76" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P76" s="34"/>
       <c r="Q76" s="44"/>
     </row>
     <row r="77" spans="1:17" s="31" customFormat="1" ht="33.75">
       <c r="A77" s="59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B77" s="49"/>
       <c r="C77" s="49"/>
@@ -10391,27 +10399,27 @@
         <v>60</v>
       </c>
       <c r="J77" s="127" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K77" s="127" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L77" s="35"/>
       <c r="M77" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N77" s="231">
         <v>43737</v>
       </c>
       <c r="O77" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P77" s="34"/>
       <c r="Q77" s="44"/>
     </row>
     <row r="78" spans="1:17" s="31" customFormat="1">
       <c r="A78" s="59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B78" s="49"/>
       <c r="C78" s="49"/>
@@ -10438,7 +10446,7 @@
     </row>
     <row r="79" spans="1:17" s="31" customFormat="1">
       <c r="A79" s="59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
@@ -10465,7 +10473,7 @@
     </row>
     <row r="80" spans="1:17" s="31" customFormat="1" ht="22.5" hidden="1">
       <c r="A80" s="59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B80" s="49"/>
       <c r="C80" s="49"/>
@@ -10474,16 +10482,16 @@
       </c>
       <c r="E80" s="53"/>
       <c r="F80" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G80" s="110" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H80" s="104" t="s">
         <v>131</v>
       </c>
       <c r="I80" s="47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J80" s="54"/>
       <c r="K80" s="54"/>
@@ -10496,7 +10504,7 @@
     </row>
     <row r="81" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A81" s="59" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B81" s="49"/>
       <c r="C81" s="47" t="s">
@@ -10515,27 +10523,27 @@
         <v>67</v>
       </c>
       <c r="J81" s="127" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K81" s="127" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L81" s="35"/>
       <c r="M81" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N81" s="231">
         <v>43737</v>
       </c>
       <c r="O81" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P81" s="34"/>
       <c r="Q81" s="44"/>
     </row>
     <row r="82" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A82" s="59" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B82" s="49"/>
       <c r="C82" s="49"/>
@@ -10554,27 +10562,27 @@
         <v>67</v>
       </c>
       <c r="J82" s="127" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K82" s="127" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L82" s="35"/>
       <c r="M82" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N82" s="231">
         <v>43737</v>
       </c>
       <c r="O82" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P82" s="34"/>
       <c r="Q82" s="44"/>
     </row>
     <row r="83" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A83" s="59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B83" s="49"/>
       <c r="C83" s="49"/>
@@ -10591,27 +10599,27 @@
         <v>67</v>
       </c>
       <c r="J83" s="54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K83" s="54" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L83" s="35"/>
       <c r="M83" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N83" s="231">
         <v>43737</v>
       </c>
       <c r="O83" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P83" s="34"/>
       <c r="Q83" s="61"/>
     </row>
     <row r="84" spans="1:17" s="31" customFormat="1" ht="78" customHeight="1">
       <c r="A84" s="59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B84" s="49"/>
       <c r="C84" s="49"/>
@@ -10628,27 +10636,27 @@
         <v>67</v>
       </c>
       <c r="J84" s="127" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K84" s="127" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L84" s="35"/>
       <c r="M84" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N84" s="231">
         <v>43737</v>
       </c>
       <c r="O84" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P84" s="34"/>
       <c r="Q84" s="44"/>
     </row>
     <row r="85" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A85" s="59" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B85" s="49"/>
       <c r="C85" s="49"/>
@@ -10665,27 +10673,27 @@
         <v>67</v>
       </c>
       <c r="J85" s="127" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K85" s="127" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L85" s="35"/>
       <c r="M85" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N85" s="231">
         <v>43737</v>
       </c>
       <c r="O85" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P85" s="34"/>
       <c r="Q85" s="44"/>
     </row>
     <row r="86" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A86" s="59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B86" s="49"/>
       <c r="C86" s="49"/>
@@ -10702,27 +10710,27 @@
         <v>67</v>
       </c>
       <c r="J86" s="127" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K86" s="127" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L86" s="35"/>
       <c r="M86" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N86" s="231">
         <v>43737</v>
       </c>
       <c r="O86" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P86" s="34"/>
       <c r="Q86" s="44"/>
     </row>
     <row r="87" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A87" s="59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B87" s="49"/>
       <c r="C87" s="49"/>
@@ -10731,10 +10739,10 @@
       </c>
       <c r="E87" s="68"/>
       <c r="F87" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G87" s="110" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H87" s="47" t="s">
         <v>132</v>
@@ -10753,7 +10761,7 @@
     </row>
     <row r="88" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A88" s="59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B88" s="49"/>
       <c r="C88" s="49"/>
@@ -10762,10 +10770,10 @@
       </c>
       <c r="E88" s="68"/>
       <c r="F88" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G88" s="110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H88" s="47" t="s">
         <v>132</v>
@@ -10784,7 +10792,7 @@
     </row>
     <row r="89" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A89" s="59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B89" s="49"/>
       <c r="C89" s="49"/>
@@ -10793,10 +10801,10 @@
       </c>
       <c r="E89" s="68"/>
       <c r="F89" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G89" s="110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H89" s="47" t="s">
         <v>132</v>
@@ -10815,7 +10823,7 @@
     </row>
     <row r="90" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A90" s="59" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B90" s="49"/>
       <c r="C90" s="49"/>
@@ -10824,10 +10832,10 @@
       </c>
       <c r="E90" s="68"/>
       <c r="F90" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G90" s="110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H90" s="47" t="s">
         <v>132</v>
@@ -10846,7 +10854,7 @@
     </row>
     <row r="91" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A91" s="59" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B91" s="49"/>
       <c r="C91" s="49"/>
@@ -10855,10 +10863,10 @@
       </c>
       <c r="E91" s="68"/>
       <c r="F91" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G91" s="110" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H91" s="47" t="s">
         <v>132</v>
@@ -10877,7 +10885,7 @@
     </row>
     <row r="92" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A92" s="59" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B92" s="49"/>
       <c r="C92" s="49"/>
@@ -10904,7 +10912,7 @@
     </row>
     <row r="93" spans="1:17" s="31" customFormat="1" ht="72.75" customHeight="1">
       <c r="A93" s="59" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B93" s="49"/>
       <c r="C93" s="49"/>
@@ -10921,10 +10929,10 @@
         <v>67</v>
       </c>
       <c r="J93" s="127" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K93" s="127" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L93" s="35"/>
       <c r="M93" s="33"/>
@@ -10935,7 +10943,7 @@
     </row>
     <row r="94" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A94" s="59" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B94" s="49"/>
       <c r="C94" s="49"/>
@@ -10952,27 +10960,27 @@
         <v>67</v>
       </c>
       <c r="J94" s="54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K94" s="54" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L94" s="35"/>
       <c r="M94" s="33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N94" s="231">
         <v>43737</v>
       </c>
       <c r="O94" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P94" s="34"/>
       <c r="Q94" s="44"/>
     </row>
     <row r="95" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="59" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B95" s="49"/>
       <c r="C95" s="49"/>
@@ -10999,7 +11007,7 @@
     </row>
     <row r="96" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A96" s="59" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B96" s="49"/>
       <c r="C96" s="49"/>
@@ -11026,7 +11034,7 @@
     </row>
     <row r="97" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A97" s="59" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B97" s="49"/>
       <c r="C97" s="49"/>
@@ -11035,10 +11043,10 @@
       </c>
       <c r="E97" s="68"/>
       <c r="F97" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G97" s="110" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H97" s="119" t="s">
         <v>132</v>
@@ -11057,7 +11065,7 @@
     </row>
     <row r="98" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A98" s="59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B98" s="49"/>
       <c r="C98" s="49"/>
@@ -11084,7 +11092,7 @@
     </row>
     <row r="99" spans="1:17" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A99" s="59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B99" s="49"/>
       <c r="C99" s="49"/>
@@ -11111,7 +11119,7 @@
     </row>
     <row r="100" spans="1:17" s="31" customFormat="1" ht="45" customHeight="1">
       <c r="A100" s="87" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B100" s="49"/>
       <c r="C100" s="49"/>
@@ -11138,7 +11146,7 @@
     </row>
     <row r="101" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A101" s="85" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B101" s="49"/>
       <c r="C101" s="49"/>
@@ -11147,10 +11155,10 @@
       </c>
       <c r="E101" s="81"/>
       <c r="F101" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G101" s="110" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H101" s="49" t="s">
         <v>132</v>
@@ -11169,7 +11177,7 @@
     </row>
     <row r="102" spans="1:17" s="31" customFormat="1" ht="23.1" hidden="1" customHeight="1">
       <c r="A102" s="87" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B102" s="88"/>
       <c r="C102" s="88"/>
@@ -11178,10 +11186,10 @@
       </c>
       <c r="E102" s="90"/>
       <c r="F102" s="109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G102" s="110" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H102" s="120" t="s">
         <v>132</v>
@@ -11414,7 +11422,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -11424,20 +11432,20 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="25" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>0</v>
@@ -11448,7 +11456,7 @@
         <v>13</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>1</v>
@@ -11478,7 +11486,7 @@
     </row>
     <row r="10" spans="1:17" s="31" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>8</v>
@@ -11493,10 +11501,10 @@
         <v>89</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G10" s="125" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>11</v>
@@ -11511,7 +11519,7 @@
         <v>3</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>4</v>
@@ -11531,13 +11539,13 @@
     </row>
     <row r="11" spans="1:17" s="31" customFormat="1" ht="78.75">
       <c r="A11" s="135" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B11" s="136" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="136" t="s">
-        <v>403</v>
+        <v>231</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>96</v>
@@ -11546,33 +11554,33 @@
       <c r="F11" s="121"/>
       <c r="G11" s="121"/>
       <c r="H11" s="136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I11" s="136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K11" s="63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L11" s="150"/>
       <c r="M11" s="33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N11" s="231">
         <v>43737</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P11" s="126"/>
       <c r="Q11" s="126"/>
     </row>
     <row r="12" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A12" s="137" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B12" s="71"/>
       <c r="C12" s="71"/>
@@ -11583,7 +11591,7 @@
       <c r="F12" s="121"/>
       <c r="G12" s="121"/>
       <c r="H12" s="220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I12" s="220" t="s">
         <v>97</v>
@@ -11599,7 +11607,7 @@
     </row>
     <row r="13" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="137" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="71"/>
@@ -11610,7 +11618,7 @@
       <c r="F13" s="121"/>
       <c r="G13" s="121"/>
       <c r="H13" s="220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I13" s="220" t="s">
         <v>97</v>
@@ -11626,7 +11634,7 @@
     </row>
     <row r="14" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A14" s="137" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B14" s="71"/>
       <c r="C14" s="71"/>
@@ -11637,7 +11645,7 @@
       <c r="F14" s="121"/>
       <c r="G14" s="121"/>
       <c r="H14" s="220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I14" s="220" t="s">
         <v>97</v>
@@ -11653,7 +11661,7 @@
     </row>
     <row r="15" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A15" s="137" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="71"/>
@@ -11666,33 +11674,33 @@
       <c r="F15" s="121"/>
       <c r="G15" s="121"/>
       <c r="H15" s="136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I15" s="136" t="s">
         <v>97</v>
       </c>
       <c r="J15" s="127" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K15" s="127" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L15" s="128"/>
       <c r="M15" s="33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N15" s="231">
         <v>43737</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P15" s="129"/>
       <c r="Q15" s="129"/>
     </row>
     <row r="16" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A16" s="137" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B16" s="71"/>
       <c r="C16" s="71"/>
@@ -11703,7 +11711,7 @@
       <c r="F16" s="121"/>
       <c r="G16" s="121"/>
       <c r="H16" s="220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I16" s="220" t="s">
         <v>97</v>
@@ -11719,7 +11727,7 @@
     </row>
     <row r="17" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A17" s="137" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
@@ -11730,7 +11738,7 @@
       <c r="F17" s="121"/>
       <c r="G17" s="121"/>
       <c r="H17" s="220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I17" s="220" t="s">
         <v>97</v>
@@ -11746,7 +11754,7 @@
     </row>
     <row r="18" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A18" s="137" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B18" s="71"/>
       <c r="C18" s="71"/>
@@ -11757,33 +11765,33 @@
       <c r="F18" s="121"/>
       <c r="G18" s="121"/>
       <c r="H18" s="136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I18" s="136" t="s">
         <v>97</v>
       </c>
       <c r="J18" s="127" t="s">
+        <v>355</v>
+      </c>
+      <c r="K18" s="127" t="s">
         <v>354</v>
-      </c>
-      <c r="K18" s="127" t="s">
-        <v>353</v>
       </c>
       <c r="L18" s="128"/>
       <c r="M18" s="33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N18" s="231">
         <v>43737</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P18" s="129"/>
       <c r="Q18" s="129"/>
     </row>
     <row r="19" spans="1:17" s="31" customFormat="1" ht="56.25" customHeight="1">
       <c r="A19" s="137" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="71"/>
@@ -11794,27 +11802,27 @@
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
       <c r="J19" s="127" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L19" s="128"/>
       <c r="M19" s="33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N19" s="231">
         <v>43737</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P19" s="129"/>
       <c r="Q19" s="129"/>
     </row>
     <row r="20" spans="1:17" s="31" customFormat="1" ht="53.25" customHeight="1">
       <c r="A20" s="137" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B20" s="71"/>
       <c r="C20" s="71"/>
@@ -11825,27 +11833,27 @@
       <c r="H20" s="49"/>
       <c r="I20" s="49"/>
       <c r="J20" s="127" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K20" s="127" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L20" s="128"/>
       <c r="M20" s="33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N20" s="231">
         <v>43737</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P20" s="129"/>
       <c r="Q20" s="129"/>
     </row>
     <row r="21" spans="1:17" s="31" customFormat="1" ht="68.25" customHeight="1">
       <c r="A21" s="137" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>
@@ -11856,32 +11864,32 @@
       <c r="H21" s="58"/>
       <c r="I21" s="58"/>
       <c r="J21" s="127" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K21" s="127" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L21" s="128"/>
       <c r="M21" s="33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N21" s="231">
         <v>43737</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P21" s="129"/>
       <c r="Q21" s="129"/>
     </row>
     <row r="22" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A22" s="137" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>
       <c r="D22" s="225" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E22" s="226" t="s">
         <v>104</v>
@@ -11889,7 +11897,7 @@
       <c r="F22" s="121"/>
       <c r="G22" s="121"/>
       <c r="H22" s="220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I22" s="220" t="s">
         <v>97</v>
@@ -11905,7 +11913,7 @@
     </row>
     <row r="23" spans="1:17" s="31" customFormat="1" ht="58.5" customHeight="1">
       <c r="A23" s="137" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B23" s="71"/>
       <c r="C23" s="71"/>
@@ -11913,75 +11921,75 @@
         <v>135</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F23" s="121"/>
       <c r="G23" s="121"/>
       <c r="H23" s="136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I23" s="136" t="s">
         <v>97</v>
       </c>
       <c r="J23" s="127" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K23" s="127" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L23" s="130"/>
       <c r="M23" s="33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N23" s="231">
         <v>43737</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P23" s="131"/>
       <c r="Q23" s="131"/>
     </row>
     <row r="24" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A24" s="137" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B24" s="71"/>
       <c r="C24" s="71"/>
       <c r="D24" s="312" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E24" s="313"/>
       <c r="F24" s="121"/>
       <c r="G24" s="121"/>
       <c r="H24" s="136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I24" s="136" t="s">
         <v>97</v>
       </c>
       <c r="J24" s="127" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K24" s="127" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L24" s="130"/>
       <c r="M24" s="33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N24" s="231">
         <v>43737</v>
       </c>
       <c r="O24" s="34" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P24" s="131"/>
       <c r="Q24" s="131"/>
     </row>
     <row r="25" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A25" s="137" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="247" t="s">
@@ -11994,7 +12002,7 @@
       <c r="F25" s="121"/>
       <c r="G25" s="121"/>
       <c r="H25" s="220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I25" s="220" t="s">
         <v>97</v>
@@ -12010,7 +12018,7 @@
     </row>
     <row r="26" spans="1:17" s="31" customFormat="1" ht="38.25" customHeight="1">
       <c r="A26" s="137" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B26" s="72"/>
       <c r="C26" s="248"/>
@@ -12021,7 +12029,7 @@
       <c r="F26" s="121"/>
       <c r="G26" s="121"/>
       <c r="H26" s="220" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I26" s="220" t="s">
         <v>97</v>
@@ -12037,10 +12045,10 @@
     </row>
     <row r="27" spans="1:17" s="31" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A27" s="137" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B27" s="136" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C27" s="140" t="s">
         <v>134</v>
@@ -12048,16 +12056,16 @@
       <c r="D27" s="123"/>
       <c r="E27" s="124"/>
       <c r="F27" s="121" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G27" s="122" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H27" s="73" t="s">
         <v>26</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J27" s="127"/>
       <c r="K27" s="127"/>
@@ -12070,25 +12078,25 @@
     </row>
     <row r="28" spans="1:17" s="31" customFormat="1" ht="38.25" hidden="1" customHeight="1">
       <c r="A28" s="141" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B28" s="101"/>
       <c r="C28" s="142" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D28" s="143"/>
       <c r="E28" s="144"/>
       <c r="F28" s="121" t="s">
+        <v>308</v>
+      </c>
+      <c r="G28" s="121" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" s="149" t="s">
         <v>307</v>
       </c>
-      <c r="G28" s="121" t="s">
-        <v>291</v>
-      </c>
-      <c r="H28" s="149" t="s">
-        <v>306</v>
-      </c>
       <c r="I28" s="149" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J28" s="132"/>
       <c r="K28" s="132"/>
